--- a/NO3-N Loss.xlsx
+++ b/NO3-N Loss.xlsx
@@ -1,30 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gio\Documents\GitHub\CSCAP\Sustainable_Corn_Paper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gio\Documents\GitHub\CSCAP\Sustainable_Corn_Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sites" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="SERF" sheetId="8" r:id="rId3"/>
     <sheet name="WATERMAN" sheetId="7" r:id="rId4"/>
+    <sheet name="rotations" sheetId="9" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">rotations!$A$1:$H$63</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SERF!$A$16:$E$47</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sites!$A$2:$D$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <pivotCaches>
-    <pivotCache cacheId="27" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="213">
   <si>
     <t>Key</t>
   </si>
@@ -206,16 +208,484 @@
   </si>
   <si>
     <t>roun</t>
+  </si>
+  <si>
+    <t>WN</t>
+  </si>
+  <si>
+    <t>WS</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>NW</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>Corn</t>
+  </si>
+  <si>
+    <t>Soybean</t>
+  </si>
+  <si>
+    <t>Wheat</t>
+  </si>
+  <si>
+    <t>[62] Corn-SOYBEAN-wheat-Corn-Soybean</t>
+  </si>
+  <si>
+    <t>ROT62</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>[61] CORN-corn-corn-corn-soybean</t>
+  </si>
+  <si>
+    <t>ROT61</t>
+  </si>
+  <si>
+    <t>Corn w/ Rye</t>
+  </si>
+  <si>
+    <t>[60] soybean-CORN with rye cover late kill</t>
+  </si>
+  <si>
+    <t>ROT60</t>
+  </si>
+  <si>
+    <t>[59] soybean-CORN with rye cover early kill</t>
+  </si>
+  <si>
+    <t>ROT59</t>
+  </si>
+  <si>
+    <t>Soybean w/ Rye</t>
+  </si>
+  <si>
+    <t>[58] CORN-corn-corn-corn-soybean with rye cover late kill</t>
+  </si>
+  <si>
+    <t>ROT58</t>
+  </si>
+  <si>
+    <t>[57] CORN-corn-corn-corn-soybean with rye cover early kill</t>
+  </si>
+  <si>
+    <t>ROT57</t>
+  </si>
+  <si>
+    <t>Wheat (Biomass Removed)</t>
+  </si>
+  <si>
+    <t>[9] CORN-soybean-wheat (biomass removed)</t>
+  </si>
+  <si>
+    <t>ROT9</t>
+  </si>
+  <si>
+    <t>[8] corn-soybean-WHEAT</t>
+  </si>
+  <si>
+    <t>ROT8</t>
+  </si>
+  <si>
+    <t>[7] corn-SOYBEAN-wheat</t>
+  </si>
+  <si>
+    <t>ROT7</t>
+  </si>
+  <si>
+    <t>[6] CORN-soybean-wheat</t>
+  </si>
+  <si>
+    <t>ROT6</t>
+  </si>
+  <si>
+    <t>[56] Soybean-corn-corn-corn-corn</t>
+  </si>
+  <si>
+    <t>ROT56</t>
+  </si>
+  <si>
+    <t>[55] corn-SOYBEAN with rye cover, 2011 was corn</t>
+  </si>
+  <si>
+    <t>ROT55</t>
+  </si>
+  <si>
+    <t>[54] corn-SOYBEAN, 2011 was corn</t>
+  </si>
+  <si>
+    <t>ROT54</t>
+  </si>
+  <si>
+    <t>Corn w/ Wheat</t>
+  </si>
+  <si>
+    <t>Soybean w/ Wheat</t>
+  </si>
+  <si>
+    <t>[53] corn-SOYBEAN-wheat/red clover (organic)</t>
+  </si>
+  <si>
+    <t>ROT53</t>
+  </si>
+  <si>
+    <t>[52] CORN-soybean-wheat/red clover (organic)</t>
+  </si>
+  <si>
+    <t>ROT52</t>
+  </si>
+  <si>
+    <t>Woodland</t>
+  </si>
+  <si>
+    <t>[51] Woodland</t>
+  </si>
+  <si>
+    <t>ROT51</t>
+  </si>
+  <si>
+    <t>Prairie</t>
+  </si>
+  <si>
+    <t>[50] Prairie (occasional burning)</t>
+  </si>
+  <si>
+    <t>ROT50</t>
+  </si>
+  <si>
+    <t>[5] corn-SOYBEAN</t>
+  </si>
+  <si>
+    <t>ROT5</t>
+  </si>
+  <si>
+    <t>Alfalfa</t>
+  </si>
+  <si>
+    <t>Oats/Alfalfa</t>
+  </si>
+  <si>
+    <t>[49] corn-soybean-oats/alfalfa-ALFALFA (Conventional)</t>
+  </si>
+  <si>
+    <t>ROT49</t>
+  </si>
+  <si>
+    <t>[48] corn-soybean-OATS/ALFALFA-alfalfa (Conventional)</t>
+  </si>
+  <si>
+    <t>ROT48</t>
+  </si>
+  <si>
+    <t>[47] corn-SOYBEAN-oats/alfalfa-alfalfa (Conventional)</t>
+  </si>
+  <si>
+    <t>ROT47</t>
+  </si>
+  <si>
+    <t>[46] CORN-soybean-oats/alfalfa-alfalfa (Conventional)</t>
+  </si>
+  <si>
+    <t>ROT46</t>
+  </si>
+  <si>
+    <t>[45] corn-soybean-oats/alfalfa-ALFALFA (Organic)</t>
+  </si>
+  <si>
+    <t>ROT45</t>
+  </si>
+  <si>
+    <t>[44] corn-soybean-OATS/ALFALFA-alfalfa (Organic)</t>
+  </si>
+  <si>
+    <t>ROT44</t>
+  </si>
+  <si>
+    <t>[43] corn-SOYBEAN-oats/alfalfa-alfalfa (Organic)</t>
+  </si>
+  <si>
+    <t>ROT43</t>
+  </si>
+  <si>
+    <t>[42] CORN-soybean-oats/alfalfa-alfalfa (Organic)</t>
+  </si>
+  <si>
+    <t>ROT42</t>
+  </si>
+  <si>
+    <t>[41] CORN-corn-soybean-corn-soybean</t>
+  </si>
+  <si>
+    <t>ROT41</t>
+  </si>
+  <si>
+    <t>[40] prairie (managed by cutting 2+/year)</t>
+  </si>
+  <si>
+    <t>ROT40</t>
+  </si>
+  <si>
+    <t>[4] CORN-soybean</t>
+  </si>
+  <si>
+    <t>ROT4</t>
+  </si>
+  <si>
+    <t>[39] continuous soybean with rye cover</t>
+  </si>
+  <si>
+    <t>ROT39</t>
+  </si>
+  <si>
+    <t>[38] continuous corn with rye cover</t>
+  </si>
+  <si>
+    <t>ROT38</t>
+  </si>
+  <si>
+    <t>[37] corn-SOYBEAN with rye cover</t>
+  </si>
+  <si>
+    <t>ROT37</t>
+  </si>
+  <si>
+    <t>[36] CORN-soybean with rye cover</t>
+  </si>
+  <si>
+    <t>ROT36</t>
+  </si>
+  <si>
+    <t>Oats</t>
+  </si>
+  <si>
+    <t>[35] corn-corn-oats-alfalfa-ALFALFA</t>
+  </si>
+  <si>
+    <t>ROT35</t>
+  </si>
+  <si>
+    <t>[34] corn-corn-oats-ALFALFA-alfalfa</t>
+  </si>
+  <si>
+    <t>ROT34</t>
+  </si>
+  <si>
+    <t>[33] corn-corn-OATS-alfalfa-alfalfa</t>
+  </si>
+  <si>
+    <t>ROT33</t>
+  </si>
+  <si>
+    <t>[32] corn-CORN-oats-alfalfa-alfalfa</t>
+  </si>
+  <si>
+    <t>ROT32</t>
+  </si>
+  <si>
+    <t>[31] CORN-corn-oats-alfalfa-alfalfa</t>
+  </si>
+  <si>
+    <t>ROT31</t>
+  </si>
+  <si>
+    <t>[30] corn-corn-corn-alfalfa-ALFALFA</t>
+  </si>
+  <si>
+    <t>ROT30</t>
+  </si>
+  <si>
+    <t>[3] continuous wheat</t>
+  </si>
+  <si>
+    <t>ROT3</t>
+  </si>
+  <si>
+    <t>[29] corn-corn-corn-ALFALFA-alfalfa</t>
+  </si>
+  <si>
+    <t>ROT29</t>
+  </si>
+  <si>
+    <t>[28] corn-corn-CORN-alfalfa-alfalfa</t>
+  </si>
+  <si>
+    <t>ROT28</t>
+  </si>
+  <si>
+    <t>[27] corn-CORN-corn-alfalfa-alfalfa</t>
+  </si>
+  <si>
+    <t>ROT27</t>
+  </si>
+  <si>
+    <t>[26] CORN-corn-corn-alfalfa-alfalfa</t>
+  </si>
+  <si>
+    <t>ROT26</t>
+  </si>
+  <si>
+    <t>[25] corn-soybean-corn-oats-ALFALFA</t>
+  </si>
+  <si>
+    <t>ROT25</t>
+  </si>
+  <si>
+    <t>[24] corn-soybean-corn-OATS-alfalfa</t>
+  </si>
+  <si>
+    <t>ROT24</t>
+  </si>
+  <si>
+    <t>[23] corn-soybean-CORN-oats-alfalfa</t>
+  </si>
+  <si>
+    <t>ROT23</t>
+  </si>
+  <si>
+    <t>[22] corn-SOYBEAN-corn-oats-alfalfa</t>
+  </si>
+  <si>
+    <t>ROT22</t>
+  </si>
+  <si>
+    <t>[21] CORN-soybean-corn-oats-alfalfa</t>
+  </si>
+  <si>
+    <t>ROT21</t>
+  </si>
+  <si>
+    <t>[20] corn-wheat-SOYBEAN</t>
+  </si>
+  <si>
+    <t>ROT20</t>
+  </si>
+  <si>
+    <t>[2] continuous soybean</t>
+  </si>
+  <si>
+    <t>ROT2</t>
+  </si>
+  <si>
+    <t>[19] corn-WHEAT-soybean</t>
+  </si>
+  <si>
+    <t>ROT19</t>
+  </si>
+  <si>
+    <t>[18] CORN-wheat-soybean</t>
+  </si>
+  <si>
+    <t>ROT18</t>
+  </si>
+  <si>
+    <t>Wheat/Red Clover or mixed cover crop (conventional)</t>
+  </si>
+  <si>
+    <t>[17] corn-soybean-WHEAT/RED CLOVER (conventional)</t>
+  </si>
+  <si>
+    <t>ROT17</t>
+  </si>
+  <si>
+    <t>[16] corn-SOYBEAN-wheat/red clover (conventional)</t>
+  </si>
+  <si>
+    <t>ROT16</t>
+  </si>
+  <si>
+    <t>[15] CORN-soybean-wheat/red clover (conventional)</t>
+  </si>
+  <si>
+    <t>ROT15</t>
+  </si>
+  <si>
+    <t>Wheat/Red Clover or mixed cover crop (non-organic)</t>
+  </si>
+  <si>
+    <t>Wheat/Red Clover or mixed cover crop (organic)</t>
+  </si>
+  <si>
+    <t>[14] corn-soybean-WHEAT/RED CLOVER (ORGANIC)</t>
+  </si>
+  <si>
+    <t>ROT14</t>
+  </si>
+  <si>
+    <t>[13] corn-SOYBEAN-wheat/red clover (organic)</t>
+  </si>
+  <si>
+    <t>ROT13</t>
+  </si>
+  <si>
+    <t>[12] CORN-soybean-wheat/red clover (organic)</t>
+  </si>
+  <si>
+    <t>ROT12</t>
+  </si>
+  <si>
+    <t>[11] corn-soybean-WHEAT (BIOMASS REMOVED)</t>
+  </si>
+  <si>
+    <t>ROT11</t>
+  </si>
+  <si>
+    <t>[10] corn-SOYBEAN-wheat (biomass removed)</t>
+  </si>
+  <si>
+    <t>ROT10</t>
+  </si>
+  <si>
+    <t>[1] continuous corn</t>
+  </si>
+  <si>
+    <t>ROT1</t>
+  </si>
+  <si>
+    <t>y2015</t>
+  </si>
+  <si>
+    <t>y2014</t>
+  </si>
+  <si>
+    <t>y2013</t>
+  </si>
+  <si>
+    <t>y2012</t>
+  </si>
+  <si>
+    <t>y2011</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Drainage_id</t>
+  </si>
+  <si>
+    <t>Drainage_name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -559,7 +1029,7 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -570,21 +1040,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -601,16 +1056,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -623,6 +1078,21 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -895,7 +1365,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="O1:R8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -1234,7 +1704,7 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="A6" sqref="A6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1286,13 +1756,13 @@
       <c r="D3" s="9"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="22" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="8"/>
@@ -1350,13 +1820,13 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="21" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="9"/>
@@ -1555,11 +2025,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G204"/>
+  <dimension ref="A1:G234"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C223" sqref="C223"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1568,8 +2038,9 @@
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
     <col min="3" max="3" width="19" style="16" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="55" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="50" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="59.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1585,8 +2056,14 @@
       <c r="D1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="53" t="s">
         <v>24</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1602,7 +2079,7 @@
       <c r="D2">
         <v>2011</v>
       </c>
-      <c r="E2" s="55">
+      <c r="E2" s="50">
         <v>23.452043861243041</v>
       </c>
       <c r="F2">
@@ -1625,7 +2102,7 @@
       <c r="D3">
         <v>2011</v>
       </c>
-      <c r="E3" s="55">
+      <c r="E3" s="50">
         <v>30.246969564684228</v>
       </c>
       <c r="F3">
@@ -1648,7 +2125,7 @@
       <c r="D4">
         <v>2011</v>
       </c>
-      <c r="E4" s="55">
+      <c r="E4" s="50">
         <v>9.7031163052810268</v>
       </c>
       <c r="F4">
@@ -1671,7 +2148,7 @@
       <c r="D5">
         <v>2011</v>
       </c>
-      <c r="E5" s="55">
+      <c r="E5" s="50">
         <v>9.5670089828788978</v>
       </c>
       <c r="F5">
@@ -1694,7 +2171,7 @@
       <c r="D6">
         <v>2011</v>
       </c>
-      <c r="E6" s="55">
+      <c r="E6" s="50">
         <v>19.042553013539081</v>
       </c>
       <c r="F6">
@@ -1717,7 +2194,7 @@
       <c r="D7">
         <v>2011</v>
       </c>
-      <c r="E7" s="55">
+      <c r="E7" s="50">
         <v>5.5691700278829366</v>
       </c>
       <c r="F7">
@@ -1740,7 +2217,7 @@
       <c r="D8">
         <v>2012</v>
       </c>
-      <c r="E8" s="55">
+      <c r="E8" s="50">
         <v>11.148345111979213</v>
       </c>
     </row>
@@ -1757,7 +2234,7 @@
       <c r="D9">
         <v>2012</v>
       </c>
-      <c r="E9" s="55">
+      <c r="E9" s="50">
         <v>12.322574278492283</v>
       </c>
     </row>
@@ -1774,7 +2251,7 @@
       <c r="D10">
         <v>2012</v>
       </c>
-      <c r="E10" s="55">
+      <c r="E10" s="50">
         <v>4.2925414474434866</v>
       </c>
     </row>
@@ -1791,7 +2268,7 @@
       <c r="D11">
         <v>2012</v>
       </c>
-      <c r="E11" s="55">
+      <c r="E11" s="50">
         <v>5.9977010626825571</v>
       </c>
     </row>
@@ -1808,7 +2285,7 @@
       <c r="D12">
         <v>2012</v>
       </c>
-      <c r="E12" s="55">
+      <c r="E12" s="50">
         <v>7.7289411623128679</v>
       </c>
     </row>
@@ -1825,7 +2302,7 @@
       <c r="D13">
         <v>2012</v>
       </c>
-      <c r="E13" s="55">
+      <c r="E13" s="50">
         <v>3.6994482564836635</v>
       </c>
     </row>
@@ -1842,7 +2319,7 @@
       <c r="D14">
         <v>2013</v>
       </c>
-      <c r="E14" s="55">
+      <c r="E14" s="50">
         <v>20.605732597297074</v>
       </c>
     </row>
@@ -1859,7 +2336,7 @@
       <c r="D15">
         <v>2013</v>
       </c>
-      <c r="E15" s="55">
+      <c r="E15" s="50">
         <v>32.226103252712221</v>
       </c>
     </row>
@@ -1876,7 +2353,7 @@
       <c r="D16">
         <v>2013</v>
       </c>
-      <c r="E16" s="55">
+      <c r="E16" s="50">
         <v>19.10728323177532</v>
       </c>
     </row>
@@ -1893,7 +2370,7 @@
       <c r="D17">
         <v>2013</v>
       </c>
-      <c r="E17" s="55">
+      <c r="E17" s="50">
         <v>20.814663293615897</v>
       </c>
     </row>
@@ -1910,7 +2387,7 @@
       <c r="D18">
         <v>2013</v>
       </c>
-      <c r="E18" s="55">
+      <c r="E18" s="50">
         <v>36.214896617535196</v>
       </c>
     </row>
@@ -1927,7 +2404,7 @@
       <c r="D19">
         <v>2013</v>
       </c>
-      <c r="E19" s="55">
+      <c r="E19" s="50">
         <v>16.269771518398983</v>
       </c>
     </row>
@@ -1944,7 +2421,7 @@
       <c r="D20">
         <v>2014</v>
       </c>
-      <c r="E20" s="55">
+      <c r="E20" s="50">
         <v>21.997187461853823</v>
       </c>
     </row>
@@ -1961,7 +2438,7 @@
       <c r="D21">
         <v>2014</v>
       </c>
-      <c r="E21" s="55">
+      <c r="E21" s="50">
         <v>59.143658115801664</v>
       </c>
     </row>
@@ -1978,7 +2455,7 @@
       <c r="D22">
         <v>2014</v>
       </c>
-      <c r="E22" s="55">
+      <c r="E22" s="50">
         <v>6.4460640319366291</v>
       </c>
     </row>
@@ -1995,7 +2472,7 @@
       <c r="D23">
         <v>2014</v>
       </c>
-      <c r="E23" s="55">
+      <c r="E23" s="50">
         <v>15.617248728120618</v>
       </c>
     </row>
@@ -2012,7 +2489,7 @@
       <c r="D24">
         <v>2014</v>
       </c>
-      <c r="E24" s="55">
+      <c r="E24" s="50">
         <v>55.974492961519047</v>
       </c>
     </row>
@@ -2029,7 +2506,7 @@
       <c r="D25">
         <v>2014</v>
       </c>
-      <c r="E25" s="55">
+      <c r="E25" s="50">
         <v>13.206844518128886</v>
       </c>
     </row>
@@ -2046,7 +2523,7 @@
       <c r="D26" s="2">
         <v>2015</v>
       </c>
-      <c r="E26" s="56">
+      <c r="E26" s="51">
         <v>6.4732370062486293</v>
       </c>
     </row>
@@ -2063,7 +2540,7 @@
       <c r="D27" s="2">
         <v>2015</v>
       </c>
-      <c r="E27" s="56">
+      <c r="E27" s="51">
         <v>14.899464757295986</v>
       </c>
     </row>
@@ -2080,7 +2557,7 @@
       <c r="D28" s="2">
         <v>2015</v>
       </c>
-      <c r="E28" s="56">
+      <c r="E28" s="51">
         <v>10.609299296662067</v>
       </c>
     </row>
@@ -2097,7 +2574,7 @@
       <c r="D29" s="2">
         <v>2015</v>
       </c>
-      <c r="E29" s="56">
+      <c r="E29" s="51">
         <v>9.9700000000000006</v>
       </c>
     </row>
@@ -2114,7 +2591,7 @@
       <c r="D30" s="2">
         <v>2015</v>
       </c>
-      <c r="E30" s="56">
+      <c r="E30" s="51">
         <v>51.15374766070407</v>
       </c>
     </row>
@@ -2131,7 +2608,7 @@
       <c r="D31" s="2">
         <v>2015</v>
       </c>
-      <c r="E31" s="56">
+      <c r="E31" s="51">
         <v>23.588162023184807</v>
       </c>
     </row>
@@ -2148,7 +2625,7 @@
       <c r="D32" s="2">
         <v>2013</v>
       </c>
-      <c r="E32" s="55">
+      <c r="E32" s="50">
         <v>1.6840000000000002</v>
       </c>
       <c r="F32">
@@ -2171,7 +2648,7 @@
       <c r="D33" s="2">
         <v>2013</v>
       </c>
-      <c r="E33" s="55">
+      <c r="E33" s="50">
         <v>1.9790000000000001</v>
       </c>
       <c r="F33">
@@ -2194,7 +2671,7 @@
       <c r="D34" s="2">
         <v>2013</v>
       </c>
-      <c r="E34" s="55">
+      <c r="E34" s="50">
         <v>0.248</v>
       </c>
       <c r="F34">
@@ -2217,7 +2694,7 @@
       <c r="D35" s="2">
         <v>2013</v>
       </c>
-      <c r="E35" s="55">
+      <c r="E35" s="50">
         <v>1.1919999999999999</v>
       </c>
       <c r="F35">
@@ -2240,7 +2717,7 @@
       <c r="D36" s="2">
         <v>2013</v>
       </c>
-      <c r="E36" s="55">
+      <c r="E36" s="50">
         <v>2.4430000000000001</v>
       </c>
       <c r="F36">
@@ -2263,7 +2740,7 @@
       <c r="D37" s="2">
         <v>2013</v>
       </c>
-      <c r="E37" s="55">
+      <c r="E37" s="50">
         <v>3.633</v>
       </c>
       <c r="F37">
@@ -2286,7 +2763,7 @@
       <c r="D38" s="2">
         <v>2013</v>
       </c>
-      <c r="E38" s="55">
+      <c r="E38" s="50">
         <v>3.355</v>
       </c>
       <c r="F38">
@@ -2309,7 +2786,7 @@
       <c r="D39" s="2">
         <v>2013</v>
       </c>
-      <c r="E39" s="55">
+      <c r="E39" s="50">
         <v>0.98</v>
       </c>
       <c r="F39">
@@ -2332,7 +2809,7 @@
       <c r="D40" s="2">
         <v>2013</v>
       </c>
-      <c r="E40" s="55">
+      <c r="E40" s="50">
         <v>0.72799999999999998</v>
       </c>
       <c r="F40">
@@ -2355,7 +2832,7 @@
       <c r="D41" s="2">
         <v>2013</v>
       </c>
-      <c r="E41" s="55">
+      <c r="E41" s="50">
         <v>0.90800000000000003</v>
       </c>
       <c r="F41">
@@ -2378,7 +2855,7 @@
       <c r="D42" s="2">
         <v>2013</v>
       </c>
-      <c r="E42" s="55">
+      <c r="E42" s="50">
         <v>2.0390000000000001</v>
       </c>
       <c r="F42">
@@ -2401,7 +2878,7 @@
       <c r="D43" s="2">
         <v>2013</v>
       </c>
-      <c r="E43" s="55">
+      <c r="E43" s="50">
         <v>0.85799999999999998</v>
       </c>
       <c r="F43">
@@ -2424,7 +2901,7 @@
       <c r="D44" s="2">
         <v>2013</v>
       </c>
-      <c r="E44" s="55">
+      <c r="E44" s="50">
         <v>1.4079999999999999</v>
       </c>
       <c r="F44">
@@ -2447,7 +2924,7 @@
       <c r="D45" s="2">
         <v>2013</v>
       </c>
-      <c r="E45" s="55">
+      <c r="E45" s="50">
         <v>1.5510000000000002</v>
       </c>
       <c r="F45">
@@ -2470,7 +2947,7 @@
       <c r="D46" s="2">
         <v>2013</v>
       </c>
-      <c r="E46" s="55">
+      <c r="E46" s="50">
         <v>1.464</v>
       </c>
       <c r="F46">
@@ -2493,7 +2970,7 @@
       <c r="D47" s="2">
         <v>2013</v>
       </c>
-      <c r="E47" s="55">
+      <c r="E47" s="50">
         <v>1.218</v>
       </c>
       <c r="F47">
@@ -2516,7 +2993,7 @@
       <c r="D48" s="2">
         <v>2014</v>
       </c>
-      <c r="E48" s="55">
+      <c r="E48" s="50">
         <v>0.38100000000000001</v>
       </c>
     </row>
@@ -2533,7 +3010,7 @@
       <c r="D49" s="2">
         <v>2014</v>
       </c>
-      <c r="E49" s="55">
+      <c r="E49" s="50">
         <v>0.69899999999999995</v>
       </c>
     </row>
@@ -2550,7 +3027,7 @@
       <c r="D50" s="2">
         <v>2014</v>
       </c>
-      <c r="E50" s="55">
+      <c r="E50" s="50">
         <v>0.32100000000000006</v>
       </c>
     </row>
@@ -2567,7 +3044,7 @@
       <c r="D51" s="2">
         <v>2014</v>
       </c>
-      <c r="E51" s="55">
+      <c r="E51" s="50">
         <v>1.6479999999999999</v>
       </c>
     </row>
@@ -2584,7 +3061,7 @@
       <c r="D52" s="2">
         <v>2014</v>
       </c>
-      <c r="E52" s="55">
+      <c r="E52" s="50">
         <v>2.0649999999999999</v>
       </c>
     </row>
@@ -2601,7 +3078,7 @@
       <c r="D53" s="2">
         <v>2014</v>
       </c>
-      <c r="E53" s="55">
+      <c r="E53" s="50">
         <v>1.8380000000000001</v>
       </c>
     </row>
@@ -2618,7 +3095,7 @@
       <c r="D54" s="2">
         <v>2014</v>
       </c>
-      <c r="E54" s="55">
+      <c r="E54" s="50">
         <v>3.2809999999999997</v>
       </c>
     </row>
@@ -2635,7 +3112,7 @@
       <c r="D55" s="2">
         <v>2014</v>
       </c>
-      <c r="E55" s="55">
+      <c r="E55" s="50">
         <v>1.075</v>
       </c>
     </row>
@@ -2652,7 +3129,7 @@
       <c r="D56" s="2">
         <v>2014</v>
       </c>
-      <c r="E56" s="55">
+      <c r="E56" s="50">
         <v>0.503</v>
       </c>
     </row>
@@ -2669,7 +3146,7 @@
       <c r="D57" s="2">
         <v>2014</v>
       </c>
-      <c r="E57" s="55">
+      <c r="E57" s="50">
         <v>0.87700000000000011</v>
       </c>
     </row>
@@ -2686,7 +3163,7 @@
       <c r="D58" s="2">
         <v>2014</v>
       </c>
-      <c r="E58" s="55">
+      <c r="E58" s="50">
         <v>1.694</v>
       </c>
     </row>
@@ -2703,7 +3180,7 @@
       <c r="D59" s="2">
         <v>2014</v>
       </c>
-      <c r="E59" s="55">
+      <c r="E59" s="50">
         <v>0.60500000000000009</v>
       </c>
     </row>
@@ -2720,7 +3197,7 @@
       <c r="D60" s="2">
         <v>2014</v>
       </c>
-      <c r="E60" s="55">
+      <c r="E60" s="50">
         <v>0.89800000000000002</v>
       </c>
     </row>
@@ -2737,7 +3214,7 @@
       <c r="D61" s="2">
         <v>2014</v>
       </c>
-      <c r="E61" s="55">
+      <c r="E61" s="50">
         <v>0.46399999999999997</v>
       </c>
     </row>
@@ -2754,7 +3231,7 @@
       <c r="D62" s="2">
         <v>2014</v>
       </c>
-      <c r="E62" s="55">
+      <c r="E62" s="50">
         <v>0.77800000000000002</v>
       </c>
     </row>
@@ -2771,7 +3248,7 @@
       <c r="D63" s="2">
         <v>2014</v>
       </c>
-      <c r="E63" s="55">
+      <c r="E63" s="50">
         <v>0.17499999999999999</v>
       </c>
     </row>
@@ -2788,7 +3265,7 @@
       <c r="D64" s="2">
         <v>2015</v>
       </c>
-      <c r="E64" s="55">
+      <c r="E64" s="50">
         <v>1.2143780866474001</v>
       </c>
     </row>
@@ -2805,7 +3282,7 @@
       <c r="D65" s="2">
         <v>2015</v>
       </c>
-      <c r="E65" s="55">
+      <c r="E65" s="50">
         <v>4.7224169502400004</v>
       </c>
     </row>
@@ -2822,7 +3299,7 @@
       <c r="D66" s="2">
         <v>2015</v>
       </c>
-      <c r="E66" s="55">
+      <c r="E66" s="50">
         <v>9.5907120149000005E-2</v>
       </c>
     </row>
@@ -2839,7 +3316,7 @@
       <c r="D67" s="2">
         <v>2015</v>
       </c>
-      <c r="E67" s="55">
+      <c r="E67" s="50">
         <v>4.8318275346999995</v>
       </c>
     </row>
@@ -2856,7 +3333,7 @@
       <c r="D68" s="2">
         <v>2015</v>
       </c>
-      <c r="E68" s="55">
+      <c r="E68" s="50">
         <v>5.9621150415699997</v>
       </c>
     </row>
@@ -2873,7 +3350,7 @@
       <c r="D69" s="2">
         <v>2015</v>
       </c>
-      <c r="E69" s="55">
+      <c r="E69" s="50">
         <v>1.2614033274700001</v>
       </c>
     </row>
@@ -2890,7 +3367,7 @@
       <c r="D70" s="2">
         <v>2015</v>
       </c>
-      <c r="E70" s="55">
+      <c r="E70" s="50">
         <v>13.023550168400002</v>
       </c>
     </row>
@@ -2907,7 +3384,7 @@
       <c r="D71" s="2">
         <v>2015</v>
       </c>
-      <c r="E71" s="55">
+      <c r="E71" s="50">
         <v>0.41547906195000001</v>
       </c>
     </row>
@@ -2924,7 +3401,7 @@
       <c r="D72" s="2">
         <v>2015</v>
       </c>
-      <c r="E72" s="55">
+      <c r="E72" s="50">
         <v>5.5914414219699999</v>
       </c>
     </row>
@@ -2941,7 +3418,7 @@
       <c r="D73" s="2">
         <v>2015</v>
       </c>
-      <c r="E73" s="55">
+      <c r="E73" s="50">
         <v>0.79920880022000007</v>
       </c>
     </row>
@@ -2958,7 +3435,7 @@
       <c r="D74" s="2">
         <v>2015</v>
       </c>
-      <c r="E74" s="55">
+      <c r="E74" s="50">
         <v>9.5525150741119997</v>
       </c>
     </row>
@@ -2975,7 +3452,7 @@
       <c r="D75" s="2">
         <v>2015</v>
       </c>
-      <c r="E75" s="55">
+      <c r="E75" s="50">
         <v>0.20812192936690002</v>
       </c>
     </row>
@@ -2992,7 +3469,7 @@
       <c r="D76" s="2">
         <v>2015</v>
       </c>
-      <c r="E76" s="55">
+      <c r="E76" s="50">
         <v>5.7489768439000004</v>
       </c>
     </row>
@@ -3009,7 +3486,7 @@
       <c r="D77" s="2">
         <v>2015</v>
       </c>
-      <c r="E77" s="55">
+      <c r="E77" s="50">
         <v>1.5346370124473099</v>
       </c>
     </row>
@@ -3026,7 +3503,7 @@
       <c r="D78" s="2">
         <v>2015</v>
       </c>
-      <c r="E78" s="55">
+      <c r="E78" s="50">
         <v>8.0600711037600004</v>
       </c>
     </row>
@@ -3043,7 +3520,7 @@
       <c r="D79" s="2">
         <v>2015</v>
       </c>
-      <c r="E79" s="55">
+      <c r="E79" s="50">
         <v>0.28988878366199999</v>
       </c>
     </row>
@@ -3060,7 +3537,7 @@
       <c r="D80" s="2">
         <v>2011</v>
       </c>
-      <c r="E80" s="55">
+      <c r="E80" s="50">
         <v>33.893501081094996</v>
       </c>
       <c r="F80">
@@ -3083,7 +3560,7 @@
       <c r="D81" s="2">
         <v>2011</v>
       </c>
-      <c r="E81" s="55">
+      <c r="E81" s="50">
         <v>22.255034214053001</v>
       </c>
       <c r="F81">
@@ -3106,7 +3583,7 @@
       <c r="D82" s="2">
         <v>2011</v>
       </c>
-      <c r="E82" s="55">
+      <c r="E82" s="50">
         <v>17.372465952020001</v>
       </c>
       <c r="F82">
@@ -3129,7 +3606,7 @@
       <c r="D83" s="2">
         <v>2011</v>
       </c>
-      <c r="E83" s="55">
+      <c r="E83" s="50">
         <v>12.363016364251999</v>
       </c>
       <c r="F83">
@@ -3152,7 +3629,7 @@
       <c r="D84" s="2">
         <v>2011</v>
       </c>
-      <c r="E84" s="55">
+      <c r="E84" s="50">
         <v>24.906595380221997</v>
       </c>
       <c r="F84">
@@ -3175,7 +3652,7 @@
       <c r="D85" s="2">
         <v>2011</v>
       </c>
-      <c r="E85" s="55">
+      <c r="E85" s="50">
         <v>18.670616249842002</v>
       </c>
       <c r="F85">
@@ -3198,7 +3675,7 @@
       <c r="D86" s="2">
         <v>2011</v>
       </c>
-      <c r="E86" s="55">
+      <c r="E86" s="50">
         <v>29.817801804649001</v>
       </c>
       <c r="F86">
@@ -3221,7 +3698,7 @@
       <c r="D87" s="2">
         <v>2011</v>
       </c>
-      <c r="E87" s="55">
+      <c r="E87" s="50">
         <v>35.702099121700002</v>
       </c>
       <c r="F87">
@@ -3244,7 +3721,7 @@
       <c r="D88" s="2">
         <v>2011</v>
       </c>
-      <c r="E88" s="55">
+      <c r="E88" s="50">
         <v>35.957284232900008</v>
       </c>
       <c r="F88">
@@ -3267,7 +3744,7 @@
       <c r="D89" s="2">
         <v>2011</v>
       </c>
-      <c r="E89" s="55">
+      <c r="E89" s="50">
         <v>33.934294000212503</v>
       </c>
       <c r="F89">
@@ -3290,7 +3767,7 @@
       <c r="D90" s="2">
         <v>2011</v>
       </c>
-      <c r="E90" s="55">
+      <c r="E90" s="50">
         <v>31.510608808828</v>
       </c>
       <c r="F90">
@@ -3313,7 +3790,7 @@
       <c r="D91" s="2">
         <v>2011</v>
       </c>
-      <c r="E91" s="55">
+      <c r="E91" s="50">
         <v>27.658282983732882</v>
       </c>
       <c r="F91">
@@ -3336,7 +3813,7 @@
       <c r="D92" s="2">
         <v>2011</v>
       </c>
-      <c r="E92" s="55">
+      <c r="E92" s="50">
         <v>40.625790834490203</v>
       </c>
       <c r="F92">
@@ -3359,7 +3836,7 @@
       <c r="D93" s="2">
         <v>2011</v>
       </c>
-      <c r="E93" s="55">
+      <c r="E93" s="50">
         <v>43.060683878403999</v>
       </c>
       <c r="F93">
@@ -3382,7 +3859,7 @@
       <c r="D94" s="2">
         <v>2011</v>
       </c>
-      <c r="E94" s="55">
+      <c r="E94" s="50">
         <v>18.865506750541005</v>
       </c>
       <c r="F94">
@@ -3405,7 +3882,7 @@
       <c r="D95" s="2">
         <v>2011</v>
       </c>
-      <c r="E95" s="55">
+      <c r="E95" s="50">
         <v>38.322138353070002</v>
       </c>
       <c r="F95">
@@ -3428,7 +3905,7 @@
       <c r="D96" s="2">
         <v>2011</v>
       </c>
-      <c r="E96" s="55">
+      <c r="E96" s="50">
         <v>39.411498217799</v>
       </c>
       <c r="F96">
@@ -3451,7 +3928,7 @@
       <c r="D97" s="2">
         <v>2011</v>
       </c>
-      <c r="E97" s="55">
+      <c r="E97" s="50">
         <v>36.003775052971498</v>
       </c>
       <c r="F97">
@@ -3474,7 +3951,7 @@
       <c r="D98" s="2">
         <v>2011</v>
       </c>
-      <c r="E98" s="55">
+      <c r="E98" s="50">
         <v>53.283005938629991</v>
       </c>
       <c r="F98">
@@ -3497,7 +3974,7 @@
       <c r="D99" s="2">
         <v>2011</v>
       </c>
-      <c r="E99" s="55">
+      <c r="E99" s="50">
         <v>21.703487865370999</v>
       </c>
       <c r="F99">
@@ -3520,7 +3997,7 @@
       <c r="D100" s="2">
         <v>2011</v>
       </c>
-      <c r="E100" s="55">
+      <c r="E100" s="50">
         <v>39.305943372854003</v>
       </c>
       <c r="F100">
@@ -3543,7 +4020,7 @@
       <c r="D101" s="2">
         <v>2011</v>
       </c>
-      <c r="E101" s="55">
+      <c r="E101" s="50">
         <v>15.384113428699999</v>
       </c>
       <c r="F101">
@@ -3566,7 +4043,7 @@
       <c r="D102" s="2">
         <v>2011</v>
       </c>
-      <c r="E102" s="55">
+      <c r="E102" s="50">
         <v>0</v>
       </c>
       <c r="F102">
@@ -3589,7 +4066,7 @@
       <c r="D103" s="2">
         <v>2011</v>
       </c>
-      <c r="E103" s="55">
+      <c r="E103" s="50">
         <v>8.8215706606489999</v>
       </c>
       <c r="F103">
@@ -3612,7 +4089,7 @@
       <c r="D104" s="2">
         <v>2012</v>
       </c>
-      <c r="E104" s="55">
+      <c r="E104" s="50">
         <v>1.6355215090500002</v>
       </c>
     </row>
@@ -3629,7 +4106,7 @@
       <c r="D105" s="2">
         <v>2012</v>
       </c>
-      <c r="E105" s="55">
+      <c r="E105" s="50">
         <v>2.7056183333900002E-2</v>
       </c>
     </row>
@@ -3646,7 +4123,7 @@
       <c r="D106" s="2">
         <v>2012</v>
       </c>
-      <c r="E106" s="55">
+      <c r="E106" s="50">
         <v>0.27000266447510002</v>
       </c>
     </row>
@@ -3663,7 +4140,7 @@
       <c r="D107" s="2">
         <v>2012</v>
       </c>
-      <c r="E107" s="55">
+      <c r="E107" s="50">
         <v>2.31032965154</v>
       </c>
     </row>
@@ -3680,7 +4157,7 @@
       <c r="D108" s="2">
         <v>2012</v>
       </c>
-      <c r="E108" s="55">
+      <c r="E108" s="50">
         <v>3.7990072917099997</v>
       </c>
     </row>
@@ -3697,7 +4174,7 @@
       <c r="D109" s="2">
         <v>2012</v>
       </c>
-      <c r="E109" s="55">
+      <c r="E109" s="50">
         <v>3.7031151970381</v>
       </c>
     </row>
@@ -3714,7 +4191,7 @@
       <c r="D110" s="2">
         <v>2012</v>
       </c>
-      <c r="E110" s="55">
+      <c r="E110" s="50">
         <v>6.7826216129332302</v>
       </c>
     </row>
@@ -3731,7 +4208,7 @@
       <c r="D111" s="2">
         <v>2012</v>
       </c>
-      <c r="E111" s="55">
+      <c r="E111" s="50">
         <v>8.6818759156900001</v>
       </c>
     </row>
@@ -3748,7 +4225,7 @@
       <c r="D112" s="2">
         <v>2012</v>
       </c>
-      <c r="E112" s="55">
+      <c r="E112" s="50">
         <v>5.7496622547400005</v>
       </c>
     </row>
@@ -3765,7 +4242,7 @@
       <c r="D113" s="2">
         <v>2012</v>
       </c>
-      <c r="E113" s="55">
+      <c r="E113" s="50">
         <v>5.7023067871999995</v>
       </c>
     </row>
@@ -3782,7 +4259,7 @@
       <c r="D114" s="2">
         <v>2012</v>
       </c>
-      <c r="E114" s="55">
+      <c r="E114" s="50">
         <v>5.261204012925</v>
       </c>
     </row>
@@ -3799,7 +4276,7 @@
       <c r="D115" s="2">
         <v>2012</v>
       </c>
-      <c r="E115" s="55">
+      <c r="E115" s="50">
         <v>1.0839969308799999</v>
       </c>
     </row>
@@ -3816,7 +4293,7 @@
       <c r="D116" s="2">
         <v>2012</v>
       </c>
-      <c r="E116" s="55">
+      <c r="E116" s="50">
         <v>1.4772052155752</v>
       </c>
     </row>
@@ -3833,7 +4310,7 @@
       <c r="D117" s="2">
         <v>2012</v>
       </c>
-      <c r="E117" s="55">
+      <c r="E117" s="50">
         <v>3.9096825836651004</v>
       </c>
     </row>
@@ -3850,7 +4327,7 @@
       <c r="D118" s="2">
         <v>2012</v>
       </c>
-      <c r="E118" s="55">
+      <c r="E118" s="50">
         <v>1.27907087</v>
       </c>
     </row>
@@ -3867,7 +4344,7 @@
       <c r="D119" s="2">
         <v>2012</v>
       </c>
-      <c r="E119" s="55">
+      <c r="E119" s="50">
         <v>3.6102770695670001</v>
       </c>
     </row>
@@ -3884,7 +4361,7 @@
       <c r="D120" s="2">
         <v>2012</v>
       </c>
-      <c r="E120" s="55">
+      <c r="E120" s="50">
         <v>6.4856333930000005</v>
       </c>
     </row>
@@ -3901,7 +4378,7 @@
       <c r="D121" s="2">
         <v>2012</v>
       </c>
-      <c r="E121" s="55">
+      <c r="E121" s="50">
         <v>3.6443370092089</v>
       </c>
     </row>
@@ -3918,7 +4395,7 @@
       <c r="D122" s="2">
         <v>2012</v>
       </c>
-      <c r="E122" s="55">
+      <c r="E122" s="50">
         <v>4.1863359127790005</v>
       </c>
     </row>
@@ -3935,7 +4412,7 @@
       <c r="D123" s="2">
         <v>2012</v>
       </c>
-      <c r="E123" s="55">
+      <c r="E123" s="50">
         <v>4.6097671192699998</v>
       </c>
     </row>
@@ -3952,7 +4429,7 @@
       <c r="D124" s="2">
         <v>2012</v>
       </c>
-      <c r="E124" s="55">
+      <c r="E124" s="50">
         <v>0.25569976490000002</v>
       </c>
     </row>
@@ -3969,7 +4446,7 @@
       <c r="D125" s="2">
         <v>2012</v>
       </c>
-      <c r="E125" s="55">
+      <c r="E125" s="50">
         <v>2.36528838065</v>
       </c>
     </row>
@@ -3986,7 +4463,7 @@
       <c r="D126" s="2">
         <v>2012</v>
       </c>
-      <c r="E126" s="55">
+      <c r="E126" s="50">
         <v>0</v>
       </c>
     </row>
@@ -4003,7 +4480,7 @@
       <c r="D127" s="2">
         <v>2012</v>
       </c>
-      <c r="E127" s="55">
+      <c r="E127" s="50">
         <v>7.2856664206200001</v>
       </c>
     </row>
@@ -4020,7 +4497,7 @@
       <c r="D128" s="2">
         <v>2013</v>
       </c>
-      <c r="E128" s="55">
+      <c r="E128" s="50">
         <v>23.030017356239998</v>
       </c>
     </row>
@@ -4037,7 +4514,7 @@
       <c r="D129" s="2">
         <v>2013</v>
       </c>
-      <c r="E129" s="55">
+      <c r="E129" s="50">
         <v>14.973077254420001</v>
       </c>
     </row>
@@ -4054,7 +4531,7 @@
       <c r="D130" s="2">
         <v>2013</v>
       </c>
-      <c r="E130" s="55">
+      <c r="E130" s="50">
         <v>60.801998553200001</v>
       </c>
     </row>
@@ -4071,7 +4548,7 @@
       <c r="D131" s="2">
         <v>2013</v>
       </c>
-      <c r="E131" s="55">
+      <c r="E131" s="50">
         <v>46.932697455650008</v>
       </c>
     </row>
@@ -4088,7 +4565,7 @@
       <c r="D132" s="2">
         <v>2013</v>
       </c>
-      <c r="E132" s="55">
+      <c r="E132" s="50">
         <v>54.404444828771993</v>
       </c>
     </row>
@@ -4105,7 +4582,7 @@
       <c r="D133" s="2">
         <v>2013</v>
       </c>
-      <c r="E133" s="55">
+      <c r="E133" s="50">
         <v>51.262074135190005</v>
       </c>
     </row>
@@ -4122,7 +4599,7 @@
       <c r="D134" s="2">
         <v>2013</v>
       </c>
-      <c r="E134" s="55">
+      <c r="E134" s="50">
         <v>37.376612272650007</v>
       </c>
     </row>
@@ -4139,7 +4616,7 @@
       <c r="D135" s="2">
         <v>2013</v>
       </c>
-      <c r="E135" s="55">
+      <c r="E135" s="50">
         <v>49.786557626300009</v>
       </c>
     </row>
@@ -4156,7 +4633,7 @@
       <c r="D136" s="2">
         <v>2013</v>
       </c>
-      <c r="E136" s="55">
+      <c r="E136" s="50">
         <v>38.4672408307</v>
       </c>
     </row>
@@ -4173,7 +4650,7 @@
       <c r="D137" s="2">
         <v>2013</v>
       </c>
-      <c r="E137" s="55">
+      <c r="E137" s="50">
         <v>44.003612284320006</v>
       </c>
     </row>
@@ -4190,7 +4667,7 @@
       <c r="D138" s="2">
         <v>2013</v>
       </c>
-      <c r="E138" s="55">
+      <c r="E138" s="50">
         <v>36.254588849679998</v>
       </c>
     </row>
@@ -4207,7 +4684,7 @@
       <c r="D139" s="2">
         <v>2013</v>
       </c>
-      <c r="E139" s="55">
+      <c r="E139" s="50">
         <v>11.027588606417998</v>
       </c>
     </row>
@@ -4224,7 +4701,7 @@
       <c r="D140" s="2">
         <v>2013</v>
       </c>
-      <c r="E140" s="55">
+      <c r="E140" s="50">
         <v>39.034110925829992</v>
       </c>
     </row>
@@ -4241,7 +4718,7 @@
       <c r="D141" s="2">
         <v>2013</v>
       </c>
-      <c r="E141" s="55">
+      <c r="E141" s="50">
         <v>64.114932411490003</v>
       </c>
     </row>
@@ -4258,7 +4735,7 @@
       <c r="D142" s="2">
         <v>2013</v>
       </c>
-      <c r="E142" s="55">
+      <c r="E142" s="50">
         <v>32.167840889330002</v>
       </c>
     </row>
@@ -4275,7 +4752,7 @@
       <c r="D143" s="2">
         <v>2013</v>
       </c>
-      <c r="E143" s="55">
+      <c r="E143" s="50">
         <v>57.890307958839998</v>
       </c>
     </row>
@@ -4292,7 +4769,7 @@
       <c r="D144" s="2">
         <v>2013</v>
       </c>
-      <c r="E144" s="55">
+      <c r="E144" s="50">
         <v>74.971670048360011</v>
       </c>
     </row>
@@ -4309,7 +4786,7 @@
       <c r="D145" s="2">
         <v>2013</v>
       </c>
-      <c r="E145" s="55">
+      <c r="E145" s="50">
         <v>38.578658825380003</v>
       </c>
     </row>
@@ -4326,7 +4803,7 @@
       <c r="D146" s="2">
         <v>2013</v>
       </c>
-      <c r="E146" s="55">
+      <c r="E146" s="50">
         <v>71.821012624899993</v>
       </c>
     </row>
@@ -4343,7 +4820,7 @@
       <c r="D147" s="2">
         <v>2013</v>
       </c>
-      <c r="E147" s="55">
+      <c r="E147" s="50">
         <v>44.126723185900005</v>
       </c>
     </row>
@@ -4360,7 +4837,7 @@
       <c r="D148" s="2">
         <v>2013</v>
       </c>
-      <c r="E148" s="55">
+      <c r="E148" s="50">
         <v>59.927197310800004</v>
       </c>
     </row>
@@ -4377,7 +4854,7 @@
       <c r="D149" s="2">
         <v>2013</v>
       </c>
-      <c r="E149" s="55">
+      <c r="E149" s="50">
         <v>32.358976456399994</v>
       </c>
     </row>
@@ -4394,7 +4871,7 @@
       <c r="D150" s="2">
         <v>2013</v>
       </c>
-      <c r="E150" s="55">
+      <c r="E150" s="50">
         <v>3.053686511445</v>
       </c>
     </row>
@@ -4411,7 +4888,7 @@
       <c r="D151" s="2">
         <v>2013</v>
       </c>
-      <c r="E151" s="55">
+      <c r="E151" s="50">
         <v>24.933073608571</v>
       </c>
     </row>
@@ -4428,7 +4905,7 @@
       <c r="D152" s="2">
         <v>2014</v>
       </c>
-      <c r="E152" s="55">
+      <c r="E152" s="50">
         <v>32.677931367820008</v>
       </c>
     </row>
@@ -4445,7 +4922,7 @@
       <c r="D153" s="2">
         <v>2014</v>
       </c>
-      <c r="E153" s="55">
+      <c r="E153" s="50">
         <v>37.318842301923993</v>
       </c>
     </row>
@@ -4462,7 +4939,7 @@
       <c r="D154" s="2">
         <v>2014</v>
       </c>
-      <c r="E154" s="55">
+      <c r="E154" s="50">
         <v>27.555230320541</v>
       </c>
     </row>
@@ -4479,7 +4956,7 @@
       <c r="D155" s="2">
         <v>2014</v>
       </c>
-      <c r="E155" s="55">
+      <c r="E155" s="50">
         <v>39.245428907013007</v>
       </c>
     </row>
@@ -4496,7 +4973,7 @@
       <c r="D156" s="2">
         <v>2014</v>
       </c>
-      <c r="E156" s="55">
+      <c r="E156" s="50">
         <v>25.333882296340995</v>
       </c>
     </row>
@@ -4513,7 +4990,7 @@
       <c r="D157" s="2">
         <v>2014</v>
       </c>
-      <c r="E157" s="55">
+      <c r="E157" s="50">
         <v>42.035774541030001</v>
       </c>
     </row>
@@ -4530,7 +5007,7 @@
       <c r="D158" s="2">
         <v>2014</v>
       </c>
-      <c r="E158" s="55">
+      <c r="E158" s="50">
         <v>35.603884416989999</v>
       </c>
     </row>
@@ -4547,7 +5024,7 @@
       <c r="D159" s="2">
         <v>2014</v>
       </c>
-      <c r="E159" s="55">
+      <c r="E159" s="50">
         <v>46.882735587989998</v>
       </c>
     </row>
@@ -4564,7 +5041,7 @@
       <c r="D160" s="2">
         <v>2014</v>
       </c>
-      <c r="E160" s="55">
+      <c r="E160" s="50">
         <v>28.899440588687</v>
       </c>
     </row>
@@ -4581,7 +5058,7 @@
       <c r="D161" s="2">
         <v>2014</v>
       </c>
-      <c r="E161" s="55">
+      <c r="E161" s="50">
         <v>35.599814668434</v>
       </c>
     </row>
@@ -4598,7 +5075,7 @@
       <c r="D162" s="2">
         <v>2014</v>
       </c>
-      <c r="E162" s="55">
+      <c r="E162" s="50">
         <v>33.900097634889995</v>
       </c>
     </row>
@@ -4615,7 +5092,7 @@
       <c r="D163" s="2">
         <v>2014</v>
       </c>
-      <c r="E163" s="55">
+      <c r="E163" s="50">
         <v>20.155750633029999</v>
       </c>
     </row>
@@ -4632,7 +5109,7 @@
       <c r="D164" s="2">
         <v>2014</v>
       </c>
-      <c r="E164" s="55">
+      <c r="E164" s="50">
         <v>47.088146739215006</v>
       </c>
     </row>
@@ -4649,7 +5126,7 @@
       <c r="D165" s="2">
         <v>2014</v>
       </c>
-      <c r="E165" s="55">
+      <c r="E165" s="50">
         <v>68.132820075333001</v>
       </c>
     </row>
@@ -4666,7 +5143,7 @@
       <c r="D166" s="2">
         <v>2014</v>
       </c>
-      <c r="E166" s="55">
+      <c r="E166" s="50">
         <v>35.739449561107989</v>
       </c>
     </row>
@@ -4683,7 +5160,7 @@
       <c r="D167" s="2">
         <v>2014</v>
       </c>
-      <c r="E167" s="55">
+      <c r="E167" s="50">
         <v>29.634070121682001</v>
       </c>
     </row>
@@ -4700,7 +5177,7 @@
       <c r="D168" s="2">
         <v>2014</v>
       </c>
-      <c r="E168" s="55">
+      <c r="E168" s="50">
         <v>44.165739603573002</v>
       </c>
     </row>
@@ -4717,7 +5194,7 @@
       <c r="D169" s="2">
         <v>2014</v>
       </c>
-      <c r="E169" s="55">
+      <c r="E169" s="50">
         <v>36.785291605590004</v>
       </c>
     </row>
@@ -4734,7 +5211,7 @@
       <c r="D170" s="2">
         <v>2014</v>
       </c>
-      <c r="E170" s="55">
+      <c r="E170" s="50">
         <v>51.05051766651399</v>
       </c>
     </row>
@@ -4751,7 +5228,7 @@
       <c r="D171" s="2">
         <v>2014</v>
       </c>
-      <c r="E171" s="55">
+      <c r="E171" s="50">
         <v>48.860544971609009</v>
       </c>
     </row>
@@ -4768,7 +5245,7 @@
       <c r="D172" s="2">
         <v>2014</v>
       </c>
-      <c r="E172" s="55">
+      <c r="E172" s="50">
         <v>46.639928020349991</v>
       </c>
     </row>
@@ -4785,7 +5262,7 @@
       <c r="D173" s="2">
         <v>2014</v>
       </c>
-      <c r="E173" s="55">
+      <c r="E173" s="50">
         <v>34.228982242746014</v>
       </c>
     </row>
@@ -4802,7 +5279,7 @@
       <c r="D174" s="2">
         <v>2014</v>
       </c>
-      <c r="E174" s="55">
+      <c r="E174" s="50">
         <v>1.622951915921</v>
       </c>
     </row>
@@ -4819,7 +5296,7 @@
       <c r="D175" s="2">
         <v>2014</v>
       </c>
-      <c r="E175" s="55">
+      <c r="E175" s="50">
         <v>19.033994489188803</v>
       </c>
     </row>
@@ -4836,7 +5313,7 @@
       <c r="D176" s="2">
         <v>2015</v>
       </c>
-      <c r="E176" s="55">
+      <c r="E176" s="50">
         <v>52.845979230371078</v>
       </c>
     </row>
@@ -4853,7 +5330,7 @@
       <c r="D177" s="2">
         <v>2015</v>
       </c>
-      <c r="E177" s="55">
+      <c r="E177" s="50">
         <v>68.299413873214888</v>
       </c>
     </row>
@@ -4870,7 +5347,7 @@
       <c r="D178" s="2">
         <v>2015</v>
       </c>
-      <c r="E178" s="55">
+      <c r="E178" s="50">
         <v>11.685010323341</v>
       </c>
     </row>
@@ -4887,7 +5364,7 @@
       <c r="D179" s="2">
         <v>2015</v>
       </c>
-      <c r="E179" s="55">
+      <c r="E179" s="50">
         <v>46.00717063863501</v>
       </c>
     </row>
@@ -4904,7 +5381,7 @@
       <c r="D180" s="2">
         <v>2015</v>
       </c>
-      <c r="E180" s="55">
+      <c r="E180" s="50">
         <v>48.514446411912004</v>
       </c>
     </row>
@@ -4921,7 +5398,7 @@
       <c r="D181" s="2">
         <v>2015</v>
       </c>
-      <c r="E181" s="55">
+      <c r="E181" s="50">
         <v>76.502462227468001</v>
       </c>
     </row>
@@ -4938,7 +5415,7 @@
       <c r="D182" s="2">
         <v>2015</v>
       </c>
-      <c r="E182" s="55">
+      <c r="E182" s="50">
         <v>57.960311309191994</v>
       </c>
     </row>
@@ -4955,7 +5432,7 @@
       <c r="D183" s="2">
         <v>2015</v>
       </c>
-      <c r="E183" s="55">
+      <c r="E183" s="50">
         <v>81.617539961081604</v>
       </c>
     </row>
@@ -4972,7 +5449,7 @@
       <c r="D184" s="2">
         <v>2015</v>
       </c>
-      <c r="E184" s="55">
+      <c r="E184" s="50">
         <v>46.215634211093004</v>
       </c>
     </row>
@@ -4989,7 +5466,7 @@
       <c r="D185" s="2">
         <v>2015</v>
       </c>
-      <c r="E185" s="55">
+      <c r="E185" s="50">
         <v>52.683634844421</v>
       </c>
     </row>
@@ -5006,7 +5483,7 @@
       <c r="D186" s="2">
         <v>2015</v>
       </c>
-      <c r="E186" s="55">
+      <c r="E186" s="50">
         <v>58.306502651487008</v>
       </c>
     </row>
@@ -5023,7 +5500,7 @@
       <c r="D187" s="2">
         <v>2015</v>
       </c>
-      <c r="E187" s="55">
+      <c r="E187" s="50">
         <v>16.089184554055002</v>
       </c>
     </row>
@@ -5040,7 +5517,7 @@
       <c r="D188" s="2">
         <v>2015</v>
       </c>
-      <c r="E188" s="55">
+      <c r="E188" s="50">
         <v>60.442553356537005</v>
       </c>
     </row>
@@ -5057,7 +5534,7 @@
       <c r="D189" s="2">
         <v>2015</v>
       </c>
-      <c r="E189" s="55">
+      <c r="E189" s="50">
         <v>119.26618740489899</v>
       </c>
     </row>
@@ -5074,7 +5551,7 @@
       <c r="D190" s="2">
         <v>2015</v>
       </c>
-      <c r="E190" s="55">
+      <c r="E190" s="50">
         <v>34.120942835661005</v>
       </c>
     </row>
@@ -5091,7 +5568,7 @@
       <c r="D191" s="2">
         <v>2015</v>
       </c>
-      <c r="E191" s="55">
+      <c r="E191" s="50">
         <v>53.588829693475006</v>
       </c>
     </row>
@@ -5108,7 +5585,7 @@
       <c r="D192" s="2">
         <v>2015</v>
       </c>
-      <c r="E192" s="55">
+      <c r="E192" s="50">
         <v>63.33266551556099</v>
       </c>
     </row>
@@ -5125,7 +5602,7 @@
       <c r="D193" s="2">
         <v>2015</v>
       </c>
-      <c r="E193" s="55">
+      <c r="E193" s="50">
         <v>52.918512463466996</v>
       </c>
     </row>
@@ -5142,7 +5619,7 @@
       <c r="D194" s="2">
         <v>2015</v>
       </c>
-      <c r="E194" s="55">
+      <c r="E194" s="50">
         <v>70.082111695509994</v>
       </c>
     </row>
@@ -5159,7 +5636,7 @@
       <c r="D195" s="2">
         <v>2015</v>
       </c>
-      <c r="E195" s="55">
+      <c r="E195" s="50">
         <v>54.967475562665697</v>
       </c>
     </row>
@@ -5176,7 +5653,7 @@
       <c r="D196" s="2">
         <v>2015</v>
       </c>
-      <c r="E196" s="55">
+      <c r="E196" s="50">
         <v>84.99262178374299</v>
       </c>
     </row>
@@ -5193,7 +5670,7 @@
       <c r="D197" s="2">
         <v>2015</v>
       </c>
-      <c r="E197" s="55">
+      <c r="E197" s="50">
         <v>48.311555918031999</v>
       </c>
     </row>
@@ -5210,7 +5687,7 @@
       <c r="D198" s="2">
         <v>2015</v>
       </c>
-      <c r="E198" s="55">
+      <c r="E198" s="50">
         <v>90.398772831222004</v>
       </c>
     </row>
@@ -5227,7 +5704,7 @@
       <c r="D199" s="2">
         <v>2015</v>
       </c>
-      <c r="E199" s="55">
+      <c r="E199" s="50">
         <v>28.260761801459996</v>
       </c>
     </row>
@@ -5244,7 +5721,7 @@
       <c r="D200" s="2">
         <v>2014</v>
       </c>
-      <c r="E200" s="57">
+      <c r="E200" s="52">
         <v>0.4702921739999999</v>
       </c>
     </row>
@@ -5261,7 +5738,7 @@
       <c r="D201" s="2">
         <v>2014</v>
       </c>
-      <c r="E201" s="57">
+      <c r="E201" s="52">
         <v>0.73397339399999995</v>
       </c>
     </row>
@@ -5278,7 +5755,7 @@
       <c r="D202" s="2">
         <v>2014</v>
       </c>
-      <c r="E202" s="57">
+      <c r="E202" s="52">
         <v>0.24717726000000001</v>
       </c>
     </row>
@@ -5295,7 +5772,7 @@
       <c r="D203" s="2">
         <v>2014</v>
       </c>
-      <c r="E203" s="57">
+      <c r="E203" s="52">
         <v>0.17434296000000002</v>
       </c>
     </row>
@@ -5312,9 +5789,463 @@
       <c r="D204" s="2">
         <v>2014</v>
       </c>
-      <c r="E204" s="57">
+      <c r="E204" s="52">
         <v>0.11686617800000001</v>
       </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B205" t="s">
+        <v>57</v>
+      </c>
+      <c r="C205" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D205">
+        <v>2011</v>
+      </c>
+      <c r="E205">
+        <v>37.70317</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B206" t="s">
+        <v>57</v>
+      </c>
+      <c r="C206" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D206">
+        <v>2012</v>
+      </c>
+      <c r="E206">
+        <v>17.866420000000002</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B207" t="s">
+        <v>57</v>
+      </c>
+      <c r="C207" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D207">
+        <v>2013</v>
+      </c>
+      <c r="E207">
+        <v>10.559609999999999</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B208" t="s">
+        <v>57</v>
+      </c>
+      <c r="C208" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D208">
+        <v>2014</v>
+      </c>
+      <c r="E208">
+        <v>59.785249999999998</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B209" t="s">
+        <v>57</v>
+      </c>
+      <c r="C209" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D209">
+        <v>2015</v>
+      </c>
+      <c r="E209">
+        <v>96.868489999999994</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B210" t="s">
+        <v>58</v>
+      </c>
+      <c r="C210" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D210">
+        <v>2011</v>
+      </c>
+      <c r="E210">
+        <v>40.645859999999999</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B211" t="s">
+        <v>58</v>
+      </c>
+      <c r="C211" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D211">
+        <v>2012</v>
+      </c>
+      <c r="E211">
+        <v>24.958449999999999</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B212" t="s">
+        <v>58</v>
+      </c>
+      <c r="C212" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D212">
+        <v>2013</v>
+      </c>
+      <c r="E212">
+        <v>39.944870000000002</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B213" t="s">
+        <v>58</v>
+      </c>
+      <c r="C213" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D213">
+        <v>2014</v>
+      </c>
+      <c r="E213">
+        <v>49.785690000000002</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B214" t="s">
+        <v>58</v>
+      </c>
+      <c r="C214" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D214">
+        <v>2015</v>
+      </c>
+      <c r="E214">
+        <v>43.728879999999997</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B215" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C215" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D215">
+        <v>2012</v>
+      </c>
+      <c r="E215" s="50">
+        <v>10.779318</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B216" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C216" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D216">
+        <v>2013</v>
+      </c>
+      <c r="E216" s="50">
+        <v>6.1066310000000001</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B217" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C217" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D217">
+        <v>2014</v>
+      </c>
+      <c r="E217" s="50">
+        <v>13.759501</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B218" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C218" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D218">
+        <v>2015</v>
+      </c>
+      <c r="E218" s="50">
+        <v>4.9759320000000002</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B219" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C219" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D219">
+        <v>2012</v>
+      </c>
+      <c r="E219" s="50">
+        <v>11.241737000000001</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B220" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C220" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D220">
+        <v>2013</v>
+      </c>
+      <c r="E220" s="50">
+        <v>15.598779</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B221" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C221" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D221">
+        <v>2014</v>
+      </c>
+      <c r="E221" s="50">
+        <v>7.1193460000000002</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B222" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C222" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D222">
+        <v>2015</v>
+      </c>
+      <c r="E222" s="50">
+        <v>16.179563999999999</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B223" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C223" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D223">
+        <v>2012</v>
+      </c>
+      <c r="E223" s="50">
+        <v>7.7082629999999996</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B224" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C224" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D224">
+        <v>2013</v>
+      </c>
+      <c r="E224" s="50">
+        <v>2.0076040000000002</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B225" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C225" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D225">
+        <v>2014</v>
+      </c>
+      <c r="E225" s="50">
+        <v>7.4040609999999996</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B226" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C226" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D226">
+        <v>2015</v>
+      </c>
+      <c r="E226" s="50">
+        <v>14.018611999999999</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B227" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C227" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D227">
+        <v>2012</v>
+      </c>
+      <c r="E227" s="50">
+        <v>18.423957000000001</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B228" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C228" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D228">
+        <v>2013</v>
+      </c>
+      <c r="E228" s="50">
+        <v>29.322621999999999</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B229" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C229" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D229">
+        <v>2014</v>
+      </c>
+      <c r="E229" s="50">
+        <v>16.292902000000002</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B230" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C230" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D230">
+        <v>2015</v>
+      </c>
+      <c r="E230" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B231" s="16"/>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B232" s="16"/>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B233" s="16"/>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B234" s="16"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1">
@@ -5323,6 +6254,7 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5330,7 +6262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
@@ -5361,11 +6293,11 @@
       <c r="G1">
         <v>6</v>
       </c>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="54"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="49"/>
       <c r="O1" s="19" t="s">
         <v>33</v>
       </c>
@@ -5401,19 +6333,19 @@
       <c r="G2">
         <v>0.6482647808533899</v>
       </c>
-      <c r="I2" s="51" t="s">
+      <c r="I2" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="51" t="s">
+      <c r="J2" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="K2" s="50" t="s">
+      <c r="K2" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="50" t="s">
+      <c r="L2" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="M2" s="50" t="s">
+      <c r="M2" s="45" t="s">
         <v>52</v>
       </c>
       <c r="O2" s="20">
@@ -5464,7 +6396,7 @@
         <v>23.452043861243041</v>
       </c>
       <c r="M3" s="42">
-        <f>L3-K3</f>
+        <f t="shared" ref="M3:M32" si="0">L3-K3</f>
         <v>19.684233767844809</v>
       </c>
       <c r="O3" s="20">
@@ -5515,7 +6447,7 @@
         <v>11.148345111979213</v>
       </c>
       <c r="M4" s="42">
-        <f>L4-K4</f>
+        <f t="shared" si="0"/>
         <v>-3.2823010455714652</v>
       </c>
       <c r="O4" s="20">
@@ -5566,7 +6498,7 @@
         <v>20.605732597297074</v>
       </c>
       <c r="M5" s="42">
-        <f>L5-K5</f>
+        <f t="shared" si="0"/>
         <v>-3.4206528830169489</v>
       </c>
       <c r="O5" s="20">
@@ -5617,7 +6549,7 @@
         <v>21.997187461853823</v>
       </c>
       <c r="M6" s="42">
-        <f>L6-K6</f>
+        <f t="shared" si="0"/>
         <v>-8.2850647939563586</v>
       </c>
       <c r="O6" s="20">
@@ -5645,7 +6577,7 @@
         <v>6.4732370062486293</v>
       </c>
       <c r="M7" s="42">
-        <f>L7-K7</f>
+        <f t="shared" si="0"/>
         <v>6.4732370062486293</v>
       </c>
       <c r="O7" s="20">
@@ -5690,7 +6622,7 @@
         <v>4.5788637788655961</v>
       </c>
       <c r="M8" s="42">
-        <f>L8-K8</f>
+        <f t="shared" si="0"/>
         <v>-25.668105785818632</v>
       </c>
       <c r="O8" s="20" t="s">
@@ -5738,7 +6670,7 @@
         <v>12.322574278492283</v>
       </c>
       <c r="M9" s="42">
-        <f>L9-K9</f>
+        <f t="shared" si="0"/>
         <v>-12.275057858732286</v>
       </c>
     </row>
@@ -5774,7 +6706,7 @@
         <v>32.226103252712221</v>
       </c>
       <c r="M10" s="42">
-        <f>L10-K10</f>
+        <f t="shared" si="0"/>
         <v>0.16794595084881792</v>
       </c>
     </row>
@@ -5810,7 +6742,7 @@
         <v>59.143658115801664</v>
       </c>
       <c r="M11" s="42">
-        <f>L11-K11</f>
+        <f t="shared" si="0"/>
         <v>2.3004960969402646</v>
       </c>
     </row>
@@ -5844,7 +6776,7 @@
         <v>14.899464757295986</v>
       </c>
       <c r="M12" s="42">
-        <f>L12-K12</f>
+        <f t="shared" si="0"/>
         <v>14.899464757295986</v>
       </c>
     </row>
@@ -5880,7 +6812,7 @@
         <v>1.5885113287342694</v>
       </c>
       <c r="M13" s="42">
-        <f>L13-K13</f>
+        <f t="shared" si="0"/>
         <v>-8.1146049765467581</v>
       </c>
     </row>
@@ -5916,7 +6848,7 @@
         <v>4.2925414474434866</v>
       </c>
       <c r="M14" s="42">
-        <f>L14-K14</f>
+        <f t="shared" si="0"/>
         <v>6.4710523966688527E-2</v>
       </c>
     </row>
@@ -5934,22 +6866,22 @@
         <v>19.10728323177532</v>
       </c>
       <c r="M15" s="42">
-        <f>L15-K15</f>
+        <f t="shared" si="0"/>
         <v>-8.8569823154148963E-2</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="48"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
       <c r="I16" s="1">
         <v>3</v>
       </c>
@@ -5963,20 +6895,20 @@
         <v>6.4460640319366291</v>
       </c>
       <c r="M16" s="42">
-        <f>L16-K16</f>
+        <f t="shared" si="0"/>
         <v>-10.067110011531941</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="50" t="s">
+      <c r="A17" s="62"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="50" t="s">
+      <c r="D17" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="50" t="s">
+      <c r="E17" s="45" t="s">
         <v>52</v>
       </c>
       <c r="I17" s="1">
@@ -5990,7 +6922,7 @@
         <v>10.609299296662067</v>
       </c>
       <c r="M17" s="42">
-        <f>L17-K17</f>
+        <f t="shared" si="0"/>
         <v>10.609299296662067</v>
       </c>
     </row>
@@ -6004,7 +6936,7 @@
       <c r="C18" s="40">
         <v>3.7678100933982313</v>
       </c>
-      <c r="D18" s="61">
+      <c r="D18" s="56">
         <v>23.452043861243041</v>
       </c>
       <c r="E18" s="42">
@@ -6024,7 +6956,7 @@
         <v>1.8823994563804169</v>
       </c>
       <c r="M18" s="42">
-        <f>L18-K18</f>
+        <f t="shared" si="0"/>
         <v>-7.6846095264984804</v>
       </c>
     </row>
@@ -6035,14 +6967,14 @@
       <c r="B19" s="1">
         <v>2011</v>
       </c>
-      <c r="C19" s="60">
+      <c r="C19" s="55">
         <v>30.246969564684228</v>
       </c>
-      <c r="D19" s="59">
+      <c r="D19" s="54">
         <v>4.5788637788655961</v>
       </c>
       <c r="E19" s="42">
-        <f t="shared" ref="E19:E47" si="0">D19-C19</f>
+        <f t="shared" ref="E19:E47" si="1">D19-C19</f>
         <v>-25.668105785818632</v>
       </c>
       <c r="I19" s="1">
@@ -6058,7 +6990,7 @@
         <v>5.9977010626825571</v>
       </c>
       <c r="M19" s="42">
-        <f>L19-K19</f>
+        <f t="shared" si="0"/>
         <v>7.190171333007811E-3</v>
       </c>
     </row>
@@ -6069,14 +7001,14 @@
       <c r="B20" s="1">
         <v>2011</v>
       </c>
-      <c r="C20" s="60">
+      <c r="C20" s="55">
         <v>9.7031163052810268</v>
       </c>
-      <c r="D20" s="59">
+      <c r="D20" s="54">
         <v>1.5885113287342694</v>
       </c>
       <c r="E20" s="42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-8.1146049765467581</v>
       </c>
       <c r="G20" t="s">
@@ -6095,7 +7027,7 @@
         <v>20.814663293615897</v>
       </c>
       <c r="M20" s="42">
-        <f>L20-K20</f>
+        <f t="shared" si="0"/>
         <v>0.69922129383209608</v>
       </c>
     </row>
@@ -6106,14 +7038,14 @@
       <c r="B21" s="1">
         <v>2011</v>
       </c>
-      <c r="C21" s="60">
+      <c r="C21" s="55">
         <v>9.5670089828788978</v>
       </c>
-      <c r="D21" s="59">
+      <c r="D21" s="54">
         <v>1.8823994563804169</v>
       </c>
       <c r="E21" s="42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-7.6846095264984804</v>
       </c>
       <c r="I21" s="1">
@@ -6129,7 +7061,7 @@
         <v>15.617248728120618</v>
       </c>
       <c r="M21" s="42">
-        <f>L21-K21</f>
+        <f t="shared" si="0"/>
         <v>4.973132320845508E-2</v>
       </c>
     </row>
@@ -6140,14 +7072,14 @@
       <c r="B22" s="1">
         <v>2011</v>
       </c>
-      <c r="C22" s="60">
+      <c r="C22" s="55">
         <v>19.042553013539081</v>
       </c>
-      <c r="D22" s="59">
+      <c r="D22" s="54">
         <v>12.486065787224014</v>
       </c>
       <c r="E22" s="42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-6.5564872263150669</v>
       </c>
       <c r="I22" s="1">
@@ -6161,7 +7093,7 @@
         <v>64.995703601698239</v>
       </c>
       <c r="M22" s="42">
-        <f>L22-K22</f>
+        <f t="shared" si="0"/>
         <v>64.995703601698239</v>
       </c>
     </row>
@@ -6172,14 +7104,14 @@
       <c r="B23" s="1">
         <v>2011</v>
       </c>
-      <c r="C23" s="60">
+      <c r="C23" s="55">
         <v>5.5691700278829366</v>
       </c>
-      <c r="D23" s="59">
+      <c r="D23" s="54">
         <v>0.6482647808533899</v>
       </c>
       <c r="E23" s="42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-4.9209052470295465</v>
       </c>
       <c r="I23" s="1">
@@ -6195,7 +7127,7 @@
         <v>12.486065787224014</v>
       </c>
       <c r="M23" s="42">
-        <f>L23-K23</f>
+        <f t="shared" si="0"/>
         <v>-6.5564872263150669</v>
       </c>
     </row>
@@ -6213,7 +7145,7 @@
         <v>11.148345111979213</v>
       </c>
       <c r="E24" s="42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-3.2823010455714652</v>
       </c>
       <c r="I24" s="1">
@@ -6229,7 +7161,7 @@
         <v>7.7289411623128679</v>
       </c>
       <c r="M24" s="42">
-        <f>L24-K24</f>
+        <f t="shared" si="0"/>
         <v>1.6612172160990646E-2</v>
       </c>
     </row>
@@ -6247,7 +7179,7 @@
         <v>12.322574278492283</v>
       </c>
       <c r="E25" s="42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-12.275057858732286</v>
       </c>
       <c r="I25" s="1">
@@ -6263,7 +7195,7 @@
         <v>36.214896617535196</v>
       </c>
       <c r="M25" s="42">
-        <f>L25-K25</f>
+        <f t="shared" si="0"/>
         <v>0.80993384737238472</v>
       </c>
     </row>
@@ -6281,7 +7213,7 @@
         <v>4.2925414474434866</v>
       </c>
       <c r="E26" s="42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.4710523966688527E-2</v>
       </c>
       <c r="I26" s="1">
@@ -6297,7 +7229,7 @@
         <v>55.974492961519047</v>
       </c>
       <c r="M26" s="42">
-        <f>L26-K26</f>
+        <f t="shared" si="0"/>
         <v>0.11806283013723373</v>
       </c>
     </row>
@@ -6315,7 +7247,7 @@
         <v>5.9977010626825571</v>
       </c>
       <c r="E27" s="42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.190171333007811E-3</v>
       </c>
       <c r="I27" s="1">
@@ -6329,7 +7261,7 @@
         <v>51.15374766070407</v>
       </c>
       <c r="M27" s="42">
-        <f>L27-K27</f>
+        <f t="shared" si="0"/>
         <v>51.15374766070407</v>
       </c>
     </row>
@@ -6347,7 +7279,7 @@
         <v>7.7289411623128679</v>
       </c>
       <c r="E28" s="42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6612172160990646E-2</v>
       </c>
       <c r="I28" s="1">
@@ -6363,7 +7295,7 @@
         <v>0.6482647808533899</v>
       </c>
       <c r="M28" s="42">
-        <f>L28-K28</f>
+        <f t="shared" si="0"/>
         <v>-4.9209052470295465</v>
       </c>
     </row>
@@ -6381,7 +7313,7 @@
         <v>3.6994482564836635</v>
       </c>
       <c r="E29" s="42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9015444595589237E-2</v>
       </c>
       <c r="I29" s="1">
@@ -6397,7 +7329,7 @@
         <v>3.6994482564836635</v>
       </c>
       <c r="M29" s="42">
-        <f>L29-K29</f>
+        <f t="shared" si="0"/>
         <v>1.9015444595589237E-2</v>
       </c>
     </row>
@@ -6415,7 +7347,7 @@
         <v>20.605732597297074</v>
       </c>
       <c r="E30" s="42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-3.4206528830169489</v>
       </c>
       <c r="I30" s="1">
@@ -6431,7 +7363,7 @@
         <v>16.269771518398983</v>
       </c>
       <c r="M30" s="42">
-        <f>L30-K30</f>
+        <f t="shared" si="0"/>
         <v>0.32675268400698876</v>
       </c>
     </row>
@@ -6449,7 +7381,7 @@
         <v>32.226103252712221</v>
       </c>
       <c r="E31" s="42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.16794595084881792</v>
       </c>
       <c r="I31" s="1">
@@ -6465,7 +7397,7 @@
         <v>13.206844518128886</v>
       </c>
       <c r="M31" s="42">
-        <f>L31-K31</f>
+        <f t="shared" si="0"/>
         <v>1.4589059353748777</v>
       </c>
     </row>
@@ -6483,7 +7415,7 @@
         <v>19.10728323177532</v>
       </c>
       <c r="E32" s="42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-8.8569823154148963E-2</v>
       </c>
       <c r="I32" s="43">
@@ -6497,7 +7429,7 @@
         <v>23.588162023184807</v>
       </c>
       <c r="M32" s="42">
-        <f>L32-K32</f>
+        <f t="shared" si="0"/>
         <v>23.588162023184807</v>
       </c>
     </row>
@@ -6515,7 +7447,7 @@
         <v>20.814663293615897</v>
       </c>
       <c r="E33" s="42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.69922129383209608</v>
       </c>
     </row>
@@ -6533,7 +7465,7 @@
         <v>36.214896617535196</v>
       </c>
       <c r="E34" s="42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.80993384737238472</v>
       </c>
     </row>
@@ -6551,7 +7483,7 @@
         <v>16.269771518398983</v>
       </c>
       <c r="E35" s="42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.32675268400698876</v>
       </c>
     </row>
@@ -6569,7 +7501,7 @@
         <v>21.997187461853823</v>
       </c>
       <c r="E36" s="42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-8.2850647939563586</v>
       </c>
     </row>
@@ -6587,7 +7519,7 @@
         <v>59.143658115801664</v>
       </c>
       <c r="E37" s="42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.3004960969402646</v>
       </c>
     </row>
@@ -6605,7 +7537,7 @@
         <v>6.4460640319366291</v>
       </c>
       <c r="E38" s="42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-10.067110011531941</v>
       </c>
     </row>
@@ -6623,7 +7555,7 @@
         <v>15.617248728120618</v>
       </c>
       <c r="E39" s="42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.973132320845508E-2</v>
       </c>
     </row>
@@ -6641,7 +7573,7 @@
         <v>55.974492961519047</v>
       </c>
       <c r="E40" s="42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.11806283013723373</v>
       </c>
     </row>
@@ -6659,7 +7591,7 @@
         <v>13.206844518128886</v>
       </c>
       <c r="E41" s="42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4589059353748777</v>
       </c>
     </row>
@@ -6675,7 +7607,7 @@
         <v>6.4732370062486293</v>
       </c>
       <c r="E42" s="42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.4732370062486293</v>
       </c>
     </row>
@@ -6691,7 +7623,7 @@
         <v>14.899464757295986</v>
       </c>
       <c r="E43" s="42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14.899464757295986</v>
       </c>
     </row>
@@ -6707,7 +7639,7 @@
         <v>10.609299296662067</v>
       </c>
       <c r="E44" s="42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.609299296662067</v>
       </c>
     </row>
@@ -6719,14 +7651,14 @@
         <v>2015</v>
       </c>
       <c r="C45" s="44"/>
-      <c r="D45" s="59">
+      <c r="D45" s="54">
         <v>64.995703601698239</v>
       </c>
       <c r="E45" s="42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64.995703601698239</v>
       </c>
-      <c r="F45" s="62">
+      <c r="F45" s="57">
         <v>9.9700000000000006</v>
       </c>
     </row>
@@ -6742,7 +7674,7 @@
         <v>51.15374766070407</v>
       </c>
       <c r="E46" s="42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51.15374766070407</v>
       </c>
     </row>
@@ -6758,7 +7690,7 @@
         <v>23.588162023184807</v>
       </c>
       <c r="E47" s="42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23.588162023184807</v>
       </c>
     </row>
@@ -6855,11 +7787,11 @@
         <v>1.1565399999999999</v>
       </c>
       <c r="F4" s="26">
-        <f>D4*0.075*10^10/10^6</f>
+        <f t="shared" ref="F4:F11" si="0">D4*0.075*10^10/10^6</f>
         <v>15247.499999999998</v>
       </c>
       <c r="G4" s="31">
-        <f>F4*E4/1000000/0.075</f>
+        <f t="shared" ref="G4:G11" si="1">F4*E4/1000000/0.075</f>
         <v>0.23512458199999994</v>
       </c>
       <c r="J4">
@@ -6887,11 +7819,11 @@
         <v>1.1565399999999999</v>
       </c>
       <c r="F5" s="26">
-        <f>D5*0.075*10^10/10^6</f>
+        <f t="shared" si="0"/>
         <v>6269.9999999999991</v>
       </c>
       <c r="G5" s="31">
-        <f>F5*E5/1000000/0.075</f>
+        <f t="shared" si="1"/>
         <v>9.6686743999999977E-2</v>
       </c>
       <c r="J5">
@@ -6919,11 +7851,11 @@
         <v>1.1565399999999999</v>
       </c>
       <c r="F6" s="26">
-        <f>D6*0.075*10^10/10^6</f>
+        <f t="shared" si="0"/>
         <v>885</v>
       </c>
       <c r="G6" s="31">
-        <f>F6*E6/1000000/0.075</f>
+        <f t="shared" si="1"/>
         <v>1.3647172000000001E-2</v>
       </c>
       <c r="J6">
@@ -6951,11 +7883,11 @@
         <v>1.1565399999999999</v>
       </c>
       <c r="F7" s="26">
-        <f>D7*0.075*10^10/10^6</f>
+        <f t="shared" si="0"/>
         <v>3374.9999999999995</v>
       </c>
       <c r="G7" s="31">
-        <f>F7*E7/1000000/0.075</f>
+        <f t="shared" si="1"/>
         <v>5.2044299999999988E-2</v>
       </c>
       <c r="J7">
@@ -6983,11 +7915,11 @@
         <v>1.17282</v>
       </c>
       <c r="F8" s="26">
-        <f>D8*0.075*10^10/10^6</f>
+        <f t="shared" si="0"/>
         <v>645</v>
       </c>
       <c r="G8" s="31">
-        <f>F8*E8/1000000/0.075</f>
+        <f t="shared" si="1"/>
         <v>1.0086251999999999E-2</v>
       </c>
       <c r="J8">
@@ -7015,11 +7947,11 @@
         <v>0.47058</v>
       </c>
       <c r="F9" s="26">
-        <f>D9*0.075*10^10/10^6</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="G9" s="31">
-        <f>F9*E9/1000000/0.075</f>
+        <f t="shared" si="1"/>
         <v>1.8823200000000001E-4</v>
       </c>
     </row>
@@ -7040,11 +7972,11 @@
         <v>0.55308000000000002</v>
       </c>
       <c r="F10" s="26">
-        <f>D10*0.075*10^10/10^6</f>
+        <f t="shared" si="0"/>
         <v>442.5</v>
       </c>
       <c r="G10" s="31">
-        <f>F10*E10/1000000/0.075</f>
+        <f t="shared" si="1"/>
         <v>3.2631720000000004E-3</v>
       </c>
     </row>
@@ -7065,11 +7997,11 @@
         <v>1.9052</v>
       </c>
       <c r="F11" s="26">
-        <f>D11*0.075*10^10/10^6</f>
+        <f t="shared" si="0"/>
         <v>2332.5</v>
       </c>
       <c r="G11" s="31">
-        <f>F11*E11/1000000/0.075</f>
+        <f t="shared" si="1"/>
         <v>5.9251719999999994E-2</v>
       </c>
     </row>
@@ -7111,11 +8043,11 @@
         <v>0.72929999999999995</v>
       </c>
       <c r="F14" s="26">
-        <f>D14*0.075*10^10/10^6</f>
+        <f t="shared" ref="F14:F21" si="2">D14*0.075*10^10/10^6</f>
         <v>36172.499999999993</v>
       </c>
       <c r="G14" s="31">
-        <f>F14*E14/1000000/0.075</f>
+        <f t="shared" ref="G14:G21" si="3">F14*E14/1000000/0.075</f>
         <v>0.35174138999999988</v>
       </c>
     </row>
@@ -7136,11 +8068,11 @@
         <v>0.72929999999999995</v>
       </c>
       <c r="F15" s="26">
-        <f>D15*0.075*10^10/10^6</f>
+        <f t="shared" si="2"/>
         <v>22889.999999999996</v>
       </c>
       <c r="G15" s="31">
-        <f>F15*E15/1000000/0.075</f>
+        <f t="shared" si="3"/>
         <v>0.22258235999999998</v>
       </c>
     </row>
@@ -7161,11 +8093,11 @@
         <v>0.72929999999999995</v>
       </c>
       <c r="F16" s="26">
-        <f>D16*0.075*10^10/10^6</f>
+        <f t="shared" si="2"/>
         <v>1920</v>
       </c>
       <c r="G16" s="31">
-        <f>F16*E16/1000000/0.075</f>
+        <f t="shared" si="3"/>
         <v>1.8670079999999999E-2</v>
       </c>
     </row>
@@ -7186,11 +8118,11 @@
         <v>1.23926</v>
       </c>
       <c r="F17" s="26">
-        <f>D17*0.075*10^10/10^6</f>
+        <f t="shared" si="2"/>
         <v>7327.4999999999991</v>
       </c>
       <c r="G17" s="31">
-        <f>F17*E17/1000000/0.075</f>
+        <f t="shared" si="3"/>
         <v>0.12107570199999999</v>
       </c>
     </row>
@@ -7211,11 +8143,11 @@
         <v>0.62039999999999995</v>
       </c>
       <c r="F18" s="26">
-        <f>D18*0.075*10^10/10^6</f>
+        <f t="shared" si="2"/>
         <v>1807.5</v>
       </c>
       <c r="G18" s="31">
-        <f>F18*E18/1000000/0.075</f>
+        <f t="shared" si="3"/>
         <v>1.4951639999999997E-2</v>
       </c>
     </row>
@@ -7236,11 +8168,11 @@
         <v>4.7300000000000002E-2</v>
       </c>
       <c r="F19" s="26">
-        <f>D19*0.075*10^10/10^6</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="G19" s="31">
-        <f>F19*E19/1000000/0.075</f>
+        <f t="shared" si="3"/>
         <v>1.8920000000000002E-5</v>
       </c>
     </row>
@@ -7261,11 +8193,11 @@
         <v>0.19272</v>
       </c>
       <c r="F20" s="26">
-        <f>D20*0.075*10^10/10^6</f>
+        <f t="shared" si="2"/>
         <v>682.5</v>
       </c>
       <c r="G20" s="31">
-        <f>F20*E20/1000000/0.075</f>
+        <f t="shared" si="3"/>
         <v>1.7537520000000001E-3</v>
       </c>
     </row>
@@ -7286,11 +8218,11 @@
         <v>5.1700000000000003E-2</v>
       </c>
       <c r="F21" s="26">
-        <f>D21*0.075*10^10/10^6</f>
+        <f t="shared" si="2"/>
         <v>4612.5</v>
       </c>
       <c r="G21" s="31">
-        <f>F21*E21/1000000/0.075</f>
+        <f t="shared" si="3"/>
         <v>3.1795500000000002E-3</v>
       </c>
     </row>
@@ -7330,11 +8262,11 @@
         <v>0.80740000000000001</v>
       </c>
       <c r="F24" s="26">
-        <f>D24*0.075*10^10/10^6</f>
+        <f t="shared" ref="F24:F31" si="4">D24*0.075*10^10/10^6</f>
         <v>8625</v>
       </c>
       <c r="G24" s="31">
-        <f>F24*E24/1000000/0.075</f>
+        <f t="shared" ref="G24:G31" si="5">F24*E24/1000000/0.075</f>
         <v>9.2851000000000003E-2</v>
       </c>
     </row>
@@ -7355,11 +8287,11 @@
         <v>0.80740000000000001</v>
       </c>
       <c r="F25" s="26">
-        <f>D25*0.075*10^10/10^6</f>
+        <f t="shared" si="4"/>
         <v>6389.9999999999991</v>
       </c>
       <c r="G25" s="31">
-        <f>F25*E25/1000000/0.075</f>
+        <f t="shared" si="5"/>
         <v>6.8790479999999987E-2</v>
       </c>
     </row>
@@ -7380,11 +8312,11 @@
         <v>0.80740000000000001</v>
       </c>
       <c r="F26" s="26">
-        <f>D26*0.075*10^10/10^6</f>
+        <f t="shared" si="4"/>
         <v>780</v>
       </c>
       <c r="G26" s="31">
-        <f>F26*E26/1000000/0.075</f>
+        <f t="shared" si="5"/>
         <v>8.3969600000000002E-3</v>
       </c>
     </row>
@@ -7405,11 +8337,11 @@
         <v>0.72292000000000001</v>
       </c>
       <c r="F27" s="26">
-        <f>D27*0.075*10^10/10^6</f>
+        <f t="shared" si="4"/>
         <v>3832.5000000000005</v>
       </c>
       <c r="G27" s="31">
-        <f>F27*E27/1000000/0.075</f>
+        <f t="shared" si="5"/>
         <v>3.6941212000000001E-2</v>
       </c>
     </row>
@@ -7430,11 +8362,11 @@
         <v>0.48224</v>
       </c>
       <c r="F28" s="26">
-        <f>D28*0.075*10^10/10^6</f>
+        <f t="shared" si="4"/>
         <v>690</v>
       </c>
       <c r="G28" s="31">
-        <f>F28*E28/1000000/0.075</f>
+        <f t="shared" si="5"/>
         <v>4.4366079999999999E-3</v>
       </c>
     </row>
@@ -7455,11 +8387,11 @@
         <v>0.22528000000000001</v>
       </c>
       <c r="F29" s="26">
-        <f>D29*0.075*10^10/10^6</f>
+        <f t="shared" si="4"/>
         <v>7.5</v>
       </c>
       <c r="G29" s="31">
-        <f>F29*E29/1000000/0.075</f>
+        <f t="shared" si="5"/>
         <v>2.2528000000000002E-5</v>
       </c>
     </row>
@@ -7480,11 +8412,11 @@
         <v>1.19482</v>
       </c>
       <c r="F30" s="26">
-        <f>D30*0.075*10^10/10^6</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G30" s="31">
-        <f>F30*E30/1000000/0.075</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7505,11 +8437,11 @@
         <v>1.4352799999999999</v>
       </c>
       <c r="F31" s="26">
-        <f>D31*0.075*10^10/10^6</f>
+        <f t="shared" si="4"/>
         <v>1867.5</v>
       </c>
       <c r="G31" s="31">
-        <f>F31*E31/1000000/0.075</f>
+        <f t="shared" si="5"/>
         <v>3.5738472E-2</v>
       </c>
     </row>
@@ -7549,11 +8481,11 @@
         <v>1.11782</v>
       </c>
       <c r="F34" s="26">
-        <f>D34*0.075*10^10/10^6</f>
+        <f t="shared" ref="F34:F41" si="6">D34*0.075*10^10/10^6</f>
         <v>5632.4999999999991</v>
       </c>
       <c r="G34" s="31">
-        <f>F34*E34/1000000/0.075</f>
+        <f t="shared" ref="G34:G41" si="7">F34*E34/1000000/0.075</f>
         <v>8.3948281999999999E-2</v>
       </c>
     </row>
@@ -7574,11 +8506,11 @@
         <v>1.11782</v>
       </c>
       <c r="F35" s="26">
-        <f>D35*0.075*10^10/10^6</f>
+        <f t="shared" si="6"/>
         <v>3090</v>
       </c>
       <c r="G35" s="31">
-        <f>F35*E35/1000000/0.075</f>
+        <f t="shared" si="7"/>
         <v>4.6054184000000005E-2</v>
       </c>
     </row>
@@ -7599,11 +8531,11 @@
         <v>1.11782</v>
       </c>
       <c r="F36" s="26">
-        <f>D36*0.075*10^10/10^6</f>
+        <f t="shared" si="6"/>
         <v>165</v>
       </c>
       <c r="G36" s="31">
-        <f>F36*E36/1000000/0.075</f>
+        <f t="shared" si="7"/>
         <v>2.4592040000000004E-3</v>
       </c>
     </row>
@@ -7624,11 +8556,11 @@
         <v>1.25444</v>
       </c>
       <c r="F37" s="26">
-        <f>D37*0.075*10^10/10^6</f>
+        <f t="shared" si="6"/>
         <v>1627.4999999999998</v>
       </c>
       <c r="G37" s="31">
-        <f>F37*E37/1000000/0.075</f>
+        <f t="shared" si="7"/>
         <v>2.7221347999999996E-2</v>
       </c>
     </row>
@@ -7649,11 +8581,11 @@
         <v>1.3070200000000001</v>
       </c>
       <c r="F38" s="26">
-        <f>D38*0.075*10^10/10^6</f>
+        <f t="shared" si="6"/>
         <v>397.5</v>
       </c>
       <c r="G38" s="31">
-        <f>F38*E38/1000000/0.075</f>
+        <f t="shared" si="7"/>
         <v>6.9272060000000017E-3</v>
       </c>
     </row>
@@ -7674,11 +8606,11 @@
         <v>0.49808000000000002</v>
       </c>
       <c r="F39" s="26">
-        <f>D39*0.075*10^10/10^6</f>
+        <f t="shared" si="6"/>
         <v>7.5</v>
       </c>
       <c r="G39" s="31">
-        <f>F39*E39/1000000/0.075</f>
+        <f t="shared" si="7"/>
         <v>4.9808000000000008E-5</v>
       </c>
     </row>
@@ -7699,11 +8631,11 @@
         <v>0.33923999999999999</v>
       </c>
       <c r="F40" s="26">
-        <f>D40*0.075*10^10/10^6</f>
+        <f t="shared" si="6"/>
         <v>90</v>
       </c>
       <c r="G40" s="31">
-        <f>F40*E40/1000000/0.075</f>
+        <f t="shared" si="7"/>
         <v>4.07088E-4</v>
       </c>
     </row>
@@ -7724,11 +8656,11 @@
         <v>0.37312000000000001</v>
       </c>
       <c r="F41" s="26">
-        <f>D41*0.075*10^10/10^6</f>
+        <f t="shared" si="6"/>
         <v>1462.5</v>
       </c>
       <c r="G41" s="31">
-        <f>F41*E41/1000000/0.075</f>
+        <f t="shared" si="7"/>
         <v>7.2758400000000004E-3</v>
       </c>
     </row>
@@ -7770,11 +8702,11 @@
         <v>0.43296000000000001</v>
       </c>
       <c r="F44" s="26">
-        <f>D44*0.075*10^10/10^6</f>
+        <f t="shared" ref="F44:F51" si="8">D44*0.075*10^10/10^6</f>
         <v>8167.5</v>
       </c>
       <c r="G44" s="31">
-        <f>F44*E44/1000000/0.075</f>
+        <f t="shared" ref="G44:G51" si="9">F44*E44/1000000/0.075</f>
         <v>4.7149344000000003E-2</v>
       </c>
     </row>
@@ -7795,11 +8727,11 @@
         <v>0.43296000000000001</v>
       </c>
       <c r="F45" s="26">
-        <f>D45*0.075*10^10/10^6</f>
+        <f t="shared" si="8"/>
         <v>3262.5</v>
       </c>
       <c r="G45" s="31">
-        <f>F45*E45/1000000/0.075</f>
+        <f t="shared" si="9"/>
         <v>1.8833760000000001E-2</v>
       </c>
     </row>
@@ -7820,11 +8752,11 @@
         <v>0.43296000000000001</v>
       </c>
       <c r="F46" s="26">
-        <f>D46*0.075*10^10/10^6</f>
+        <f t="shared" si="8"/>
         <v>712.49999999999989</v>
       </c>
       <c r="G46" s="31">
-        <f>F46*E46/1000000/0.075</f>
+        <f t="shared" si="9"/>
         <v>4.1131199999999996E-3</v>
       </c>
     </row>
@@ -7845,11 +8777,11 @@
         <v>0.77902000000000005</v>
       </c>
       <c r="F47" s="26">
-        <f>D47*0.075*10^10/10^6</f>
+        <f t="shared" si="8"/>
         <v>3412.5</v>
       </c>
       <c r="G47" s="31">
-        <f>F47*E47/1000000/0.075</f>
+        <f t="shared" si="9"/>
         <v>3.5445410000000011E-2</v>
       </c>
     </row>
@@ -7870,11 +8802,11 @@
         <v>1.958E-2</v>
       </c>
       <c r="F48" s="26">
-        <f>D48*0.075*10^10/10^6</f>
+        <f t="shared" si="8"/>
         <v>1192.5</v>
       </c>
       <c r="G48" s="31">
-        <f>F48*E48/1000000/0.075</f>
+        <f t="shared" si="9"/>
         <v>3.1132200000000005E-4</v>
       </c>
     </row>
@@ -7895,11 +8827,11 @@
         <v>0.84282000000000001</v>
       </c>
       <c r="F49" s="26">
-        <f>D49*0.075*10^10/10^6</f>
+        <f t="shared" si="8"/>
         <v>7.5</v>
       </c>
       <c r="G49" s="31">
-        <f>F49*E49/1000000/0.075</f>
+        <f t="shared" si="9"/>
         <v>8.4282000000000004E-5</v>
       </c>
     </row>
@@ -7920,11 +8852,11 @@
         <v>0.97767999999999999</v>
       </c>
       <c r="F50" s="26">
-        <f>D50*0.075*10^10/10^6</f>
+        <f t="shared" si="8"/>
         <v>45</v>
       </c>
       <c r="G50" s="31">
-        <f>F50*E50/1000000/0.075</f>
+        <f t="shared" si="9"/>
         <v>5.8660800000000007E-4</v>
       </c>
     </row>
@@ -7945,11 +8877,11 @@
         <v>0.37884000000000001</v>
       </c>
       <c r="F51" s="26">
-        <f>D51*0.075*10^10/10^6</f>
+        <f t="shared" si="8"/>
         <v>2047.4999999999998</v>
       </c>
       <c r="G51" s="31">
-        <f>F51*E51/1000000/0.075</f>
+        <f t="shared" si="9"/>
         <v>1.0342331999999999E-2</v>
       </c>
     </row>
@@ -7980,4 +8912,1541 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:H63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="54.28515625" customWidth="1"/>
+    <col min="4" max="8" width="20.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" t="s">
+        <v>191</v>
+      </c>
+      <c r="G5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" t="s">
+        <v>191</v>
+      </c>
+      <c r="F6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" t="s">
+        <v>183</v>
+      </c>
+      <c r="G8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" t="s">
+        <v>183</v>
+      </c>
+      <c r="F9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D10" t="s">
+        <v>183</v>
+      </c>
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" t="s">
+        <v>183</v>
+      </c>
+      <c r="H10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C11" t="s">
+        <v>181</v>
+      </c>
+      <c r="D11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12" t="s">
+        <v>179</v>
+      </c>
+      <c r="D12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" t="s">
+        <v>177</v>
+      </c>
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" t="s">
+        <v>142</v>
+      </c>
+      <c r="H15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16" t="s">
+        <v>110</v>
+      </c>
+      <c r="H16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" t="s">
+        <v>169</v>
+      </c>
+      <c r="D17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" t="s">
+        <v>142</v>
+      </c>
+      <c r="F17" t="s">
+        <v>110</v>
+      </c>
+      <c r="G17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" t="s">
+        <v>167</v>
+      </c>
+      <c r="D18" t="s">
+        <v>142</v>
+      </c>
+      <c r="E18" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>164</v>
+      </c>
+      <c r="C20" t="s">
+        <v>163</v>
+      </c>
+      <c r="D20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" t="s">
+        <v>110</v>
+      </c>
+      <c r="H20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>162</v>
+      </c>
+      <c r="C21" t="s">
+        <v>161</v>
+      </c>
+      <c r="D21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" t="s">
+        <v>110</v>
+      </c>
+      <c r="G21" t="s">
+        <v>110</v>
+      </c>
+      <c r="H21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>160</v>
+      </c>
+      <c r="C22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F22" t="s">
+        <v>110</v>
+      </c>
+      <c r="G22" t="s">
+        <v>63</v>
+      </c>
+      <c r="H22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>158</v>
+      </c>
+      <c r="C23" t="s">
+        <v>157</v>
+      </c>
+      <c r="D23" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" t="s">
+        <v>110</v>
+      </c>
+      <c r="F23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" t="s">
+        <v>63</v>
+      </c>
+      <c r="H23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>156</v>
+      </c>
+      <c r="C24" t="s">
+        <v>155</v>
+      </c>
+      <c r="D24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" t="s">
+        <v>65</v>
+      </c>
+      <c r="H24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>154</v>
+      </c>
+      <c r="C25" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" t="s">
+        <v>63</v>
+      </c>
+      <c r="H25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>152</v>
+      </c>
+      <c r="C26" t="s">
+        <v>151</v>
+      </c>
+      <c r="D26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" t="s">
+        <v>142</v>
+      </c>
+      <c r="G26" t="s">
+        <v>110</v>
+      </c>
+      <c r="H26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" t="s">
+        <v>142</v>
+      </c>
+      <c r="F27" t="s">
+        <v>110</v>
+      </c>
+      <c r="G27" t="s">
+        <v>110</v>
+      </c>
+      <c r="H27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28" t="s">
+        <v>147</v>
+      </c>
+      <c r="D28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E28" t="s">
+        <v>110</v>
+      </c>
+      <c r="F28" t="s">
+        <v>110</v>
+      </c>
+      <c r="G28" t="s">
+        <v>63</v>
+      </c>
+      <c r="H28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>146</v>
+      </c>
+      <c r="C29" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" t="s">
+        <v>143</v>
+      </c>
+      <c r="D30" t="s">
+        <v>110</v>
+      </c>
+      <c r="E30" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" t="s">
+        <v>142</v>
+      </c>
+      <c r="H30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" t="s">
+        <v>141</v>
+      </c>
+      <c r="C31" t="s">
+        <v>140</v>
+      </c>
+      <c r="D31" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31" t="s">
+        <v>71</v>
+      </c>
+      <c r="G31" t="s">
+        <v>76</v>
+      </c>
+      <c r="H31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" t="s">
+        <v>139</v>
+      </c>
+      <c r="C32" t="s">
+        <v>138</v>
+      </c>
+      <c r="D32" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G32" t="s">
+        <v>71</v>
+      </c>
+      <c r="H32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" t="s">
+        <v>136</v>
+      </c>
+      <c r="D33" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33" t="s">
+        <v>71</v>
+      </c>
+      <c r="G33" t="s">
+        <v>71</v>
+      </c>
+      <c r="H33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>135</v>
+      </c>
+      <c r="C34" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" t="s">
+        <v>76</v>
+      </c>
+      <c r="F34" t="s">
+        <v>76</v>
+      </c>
+      <c r="G34" t="s">
+        <v>76</v>
+      </c>
+      <c r="H34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
+        <v>133</v>
+      </c>
+      <c r="C35" t="s">
+        <v>132</v>
+      </c>
+      <c r="D35" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" t="s">
+        <v>63</v>
+      </c>
+      <c r="G35" t="s">
+        <v>64</v>
+      </c>
+      <c r="H35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" t="s">
+        <v>130</v>
+      </c>
+      <c r="D36" t="s">
+        <v>105</v>
+      </c>
+      <c r="E36" t="s">
+        <v>105</v>
+      </c>
+      <c r="F36" t="s">
+        <v>105</v>
+      </c>
+      <c r="G36" t="s">
+        <v>105</v>
+      </c>
+      <c r="H36" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" t="s">
+        <v>128</v>
+      </c>
+      <c r="D37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" t="s">
+        <v>63</v>
+      </c>
+      <c r="F37" t="s">
+        <v>64</v>
+      </c>
+      <c r="G37" t="s">
+        <v>63</v>
+      </c>
+      <c r="H37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" t="s">
+        <v>126</v>
+      </c>
+      <c r="D38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E38" t="s">
+        <v>64</v>
+      </c>
+      <c r="F38" t="s">
+        <v>111</v>
+      </c>
+      <c r="G38" t="s">
+        <v>110</v>
+      </c>
+      <c r="H38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" t="s">
+        <v>124</v>
+      </c>
+      <c r="D39" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" t="s">
+        <v>111</v>
+      </c>
+      <c r="F39" t="s">
+        <v>110</v>
+      </c>
+      <c r="G39" t="s">
+        <v>63</v>
+      </c>
+      <c r="H39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>123</v>
+      </c>
+      <c r="C40" t="s">
+        <v>122</v>
+      </c>
+      <c r="D40" t="s">
+        <v>111</v>
+      </c>
+      <c r="E40" t="s">
+        <v>110</v>
+      </c>
+      <c r="F40" t="s">
+        <v>63</v>
+      </c>
+      <c r="G40" t="s">
+        <v>64</v>
+      </c>
+      <c r="H40" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" t="s">
+        <v>110</v>
+      </c>
+      <c r="E41" t="s">
+        <v>63</v>
+      </c>
+      <c r="F41" t="s">
+        <v>64</v>
+      </c>
+      <c r="G41" t="s">
+        <v>111</v>
+      </c>
+      <c r="H41" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>119</v>
+      </c>
+      <c r="C42" t="s">
+        <v>118</v>
+      </c>
+      <c r="D42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42" t="s">
+        <v>64</v>
+      </c>
+      <c r="F42" t="s">
+        <v>111</v>
+      </c>
+      <c r="G42" t="s">
+        <v>110</v>
+      </c>
+      <c r="H42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" t="s">
+        <v>116</v>
+      </c>
+      <c r="D43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" t="s">
+        <v>111</v>
+      </c>
+      <c r="F43" t="s">
+        <v>110</v>
+      </c>
+      <c r="G43" t="s">
+        <v>63</v>
+      </c>
+      <c r="H43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>115</v>
+      </c>
+      <c r="C44" t="s">
+        <v>114</v>
+      </c>
+      <c r="D44" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44" t="s">
+        <v>110</v>
+      </c>
+      <c r="F44" t="s">
+        <v>63</v>
+      </c>
+      <c r="G44" t="s">
+        <v>64</v>
+      </c>
+      <c r="H44" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>113</v>
+      </c>
+      <c r="C45" t="s">
+        <v>112</v>
+      </c>
+      <c r="D45" t="s">
+        <v>110</v>
+      </c>
+      <c r="E45" t="s">
+        <v>63</v>
+      </c>
+      <c r="F45" t="s">
+        <v>64</v>
+      </c>
+      <c r="G45" t="s">
+        <v>111</v>
+      </c>
+      <c r="H45" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46" t="s">
+        <v>108</v>
+      </c>
+      <c r="D46" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F46" t="s">
+        <v>64</v>
+      </c>
+      <c r="G46" t="s">
+        <v>63</v>
+      </c>
+      <c r="H46" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" t="s">
+        <v>106</v>
+      </c>
+      <c r="D47" t="s">
+        <v>105</v>
+      </c>
+      <c r="E47" t="s">
+        <v>105</v>
+      </c>
+      <c r="F47" t="s">
+        <v>105</v>
+      </c>
+      <c r="G47" t="s">
+        <v>105</v>
+      </c>
+      <c r="H47" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" t="s">
+        <v>102</v>
+      </c>
+      <c r="E48" t="s">
+        <v>102</v>
+      </c>
+      <c r="F48" t="s">
+        <v>102</v>
+      </c>
+      <c r="G48" t="s">
+        <v>102</v>
+      </c>
+      <c r="H48" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" t="s">
+        <v>100</v>
+      </c>
+      <c r="D49" t="s">
+        <v>96</v>
+      </c>
+      <c r="E49" t="s">
+        <v>97</v>
+      </c>
+      <c r="F49" t="s">
+        <v>65</v>
+      </c>
+      <c r="G49" t="s">
+        <v>96</v>
+      </c>
+      <c r="H49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" t="s">
+        <v>98</v>
+      </c>
+      <c r="D50" t="s">
+        <v>97</v>
+      </c>
+      <c r="E50" t="s">
+        <v>65</v>
+      </c>
+      <c r="F50" t="s">
+        <v>96</v>
+      </c>
+      <c r="G50" t="s">
+        <v>97</v>
+      </c>
+      <c r="H50" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51" t="s">
+        <v>94</v>
+      </c>
+      <c r="D51" t="s">
+        <v>63</v>
+      </c>
+      <c r="E51" t="s">
+        <v>63</v>
+      </c>
+      <c r="F51" t="s">
+        <v>64</v>
+      </c>
+      <c r="G51" t="s">
+        <v>63</v>
+      </c>
+      <c r="H51" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" t="s">
+        <v>92</v>
+      </c>
+      <c r="D52" t="s">
+        <v>71</v>
+      </c>
+      <c r="E52" t="s">
+        <v>71</v>
+      </c>
+      <c r="F52" t="s">
+        <v>76</v>
+      </c>
+      <c r="G52" t="s">
+        <v>71</v>
+      </c>
+      <c r="H52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>68</v>
+      </c>
+      <c r="B53" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" t="s">
+        <v>90</v>
+      </c>
+      <c r="D53" t="s">
+        <v>64</v>
+      </c>
+      <c r="E53" t="s">
+        <v>63</v>
+      </c>
+      <c r="F53" t="s">
+        <v>63</v>
+      </c>
+      <c r="G53" t="s">
+        <v>63</v>
+      </c>
+      <c r="H53" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>68</v>
+      </c>
+      <c r="B54" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54" t="s">
+        <v>88</v>
+      </c>
+      <c r="D54" t="s">
+        <v>63</v>
+      </c>
+      <c r="E54" t="s">
+        <v>64</v>
+      </c>
+      <c r="F54" t="s">
+        <v>65</v>
+      </c>
+      <c r="G54" t="s">
+        <v>63</v>
+      </c>
+      <c r="H54" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55" t="s">
+        <v>87</v>
+      </c>
+      <c r="C55" t="s">
+        <v>86</v>
+      </c>
+      <c r="D55" t="s">
+        <v>64</v>
+      </c>
+      <c r="E55" t="s">
+        <v>65</v>
+      </c>
+      <c r="F55" t="s">
+        <v>63</v>
+      </c>
+      <c r="G55" t="s">
+        <v>64</v>
+      </c>
+      <c r="H55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56" t="s">
+        <v>85</v>
+      </c>
+      <c r="C56" t="s">
+        <v>84</v>
+      </c>
+      <c r="D56" t="s">
+        <v>65</v>
+      </c>
+      <c r="E56" t="s">
+        <v>63</v>
+      </c>
+      <c r="F56" t="s">
+        <v>64</v>
+      </c>
+      <c r="G56" t="s">
+        <v>65</v>
+      </c>
+      <c r="H56" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>83</v>
+      </c>
+      <c r="C57" t="s">
+        <v>82</v>
+      </c>
+      <c r="D57" t="s">
+        <v>63</v>
+      </c>
+      <c r="E57" t="s">
+        <v>64</v>
+      </c>
+      <c r="F57" t="s">
+        <v>81</v>
+      </c>
+      <c r="G57" t="s">
+        <v>63</v>
+      </c>
+      <c r="H57" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>80</v>
+      </c>
+      <c r="C58" t="s">
+        <v>79</v>
+      </c>
+      <c r="D58" t="s">
+        <v>63</v>
+      </c>
+      <c r="E58" t="s">
+        <v>63</v>
+      </c>
+      <c r="F58" t="s">
+        <v>63</v>
+      </c>
+      <c r="G58" t="s">
+        <v>63</v>
+      </c>
+      <c r="H58" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59" t="s">
+        <v>77</v>
+      </c>
+      <c r="D59" t="s">
+        <v>63</v>
+      </c>
+      <c r="E59" t="s">
+        <v>63</v>
+      </c>
+      <c r="F59" t="s">
+        <v>63</v>
+      </c>
+      <c r="G59" t="s">
+        <v>63</v>
+      </c>
+      <c r="H59" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60" t="s">
+        <v>74</v>
+      </c>
+      <c r="D60" t="s">
+        <v>71</v>
+      </c>
+      <c r="E60" t="s">
+        <v>64</v>
+      </c>
+      <c r="F60" t="s">
+        <v>71</v>
+      </c>
+      <c r="G60" t="s">
+        <v>64</v>
+      </c>
+      <c r="H60" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" t="s">
+        <v>72</v>
+      </c>
+      <c r="D61" t="s">
+        <v>71</v>
+      </c>
+      <c r="E61" t="s">
+        <v>64</v>
+      </c>
+      <c r="F61" t="s">
+        <v>71</v>
+      </c>
+      <c r="G61" t="s">
+        <v>64</v>
+      </c>
+      <c r="H61" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>70</v>
+      </c>
+      <c r="C62" t="s">
+        <v>69</v>
+      </c>
+      <c r="D62" t="s">
+        <v>63</v>
+      </c>
+      <c r="E62" t="s">
+        <v>63</v>
+      </c>
+      <c r="F62" t="s">
+        <v>63</v>
+      </c>
+      <c r="G62" t="s">
+        <v>63</v>
+      </c>
+      <c r="H62" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63" t="s">
+        <v>66</v>
+      </c>
+      <c r="D63" t="s">
+        <v>64</v>
+      </c>
+      <c r="E63" t="s">
+        <v>65</v>
+      </c>
+      <c r="F63" t="s">
+        <v>63</v>
+      </c>
+      <c r="G63" t="s">
+        <v>64</v>
+      </c>
+      <c r="H63" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H63">
+    <filterColumn colId="0">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>